--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9110140760235573</v>
+        <v>0.9110140760235589</v>
       </c>
       <c r="D2">
-        <v>1.027312494085653</v>
+        <v>1.027312494085654</v>
       </c>
       <c r="E2">
-        <v>0.9292777085851561</v>
+        <v>0.9292777085851576</v>
       </c>
       <c r="F2">
-        <v>0.8824386792316882</v>
+        <v>0.8824386792316897</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.040230403936804</v>
       </c>
       <c r="J2">
-        <v>0.9362262848333793</v>
+        <v>0.9362262848333807</v>
       </c>
       <c r="K2">
-        <v>1.038403997281457</v>
+        <v>1.038403997281458</v>
       </c>
       <c r="L2">
-        <v>0.9418189256363939</v>
+        <v>0.9418189256363957</v>
       </c>
       <c r="M2">
-        <v>0.8958214001983984</v>
+        <v>0.8958214001984</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9264346030131534</v>
+        <v>0.9264346030131547</v>
       </c>
       <c r="D3">
-        <v>1.03174149609037</v>
+        <v>1.031741496090371</v>
       </c>
       <c r="E3">
-        <v>0.9422346213399677</v>
+        <v>0.9422346213399688</v>
       </c>
       <c r="F3">
-        <v>0.9017854980089043</v>
+        <v>0.9017854980089053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043187394331945</v>
+        <v>1.043187394331946</v>
       </c>
       <c r="J3">
-        <v>0.9491535290773093</v>
+        <v>0.9491535290773104</v>
       </c>
       <c r="K3">
-        <v>1.041983729356159</v>
+        <v>1.04198372935616</v>
       </c>
       <c r="L3">
-        <v>0.9536641701690584</v>
+        <v>0.9536641701690594</v>
       </c>
       <c r="M3">
-        <v>0.9138510817398137</v>
+        <v>0.9138510817398146</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9357264441033467</v>
+        <v>0.9357264441033466</v>
       </c>
       <c r="D4">
-        <v>1.034450694218905</v>
+        <v>1.034450694218904</v>
       </c>
       <c r="E4">
-        <v>0.9500558721221133</v>
+        <v>0.9500558721221127</v>
       </c>
       <c r="F4">
-        <v>0.9134104269641368</v>
+        <v>0.9134104269641361</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044957648869381</v>
       </c>
       <c r="J4">
-        <v>0.9569305390728221</v>
+        <v>0.9569305390728218</v>
       </c>
       <c r="K4">
         <v>1.04415037635855</v>
       </c>
       <c r="L4">
-        <v>0.9607969520677654</v>
+        <v>0.9607969520677649</v>
       </c>
       <c r="M4">
-        <v>0.9246799367657038</v>
+        <v>0.9246799367657028</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9394894827646753</v>
+        <v>0.9394894827646764</v>
       </c>
       <c r="D5">
-        <v>1.035555818667086</v>
+        <v>1.035555818667087</v>
       </c>
       <c r="E5">
-        <v>0.9532262387101503</v>
+        <v>0.9532262387101514</v>
       </c>
       <c r="F5">
-        <v>0.9181126408840192</v>
+        <v>0.9181126408840209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045670978969998</v>
+        <v>1.045670978969999</v>
       </c>
       <c r="J5">
-        <v>0.960076994904582</v>
+        <v>0.960076994904583</v>
       </c>
       <c r="K5">
-        <v>1.04502891889117</v>
+        <v>1.045028918891171</v>
       </c>
       <c r="L5">
-        <v>0.963684257196962</v>
+        <v>0.9636842571969633</v>
       </c>
       <c r="M5">
-        <v>0.9290587800438794</v>
+        <v>0.929058780043881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>0.9401134385835139</v>
       </c>
       <c r="D6">
-        <v>1.035739483436983</v>
+        <v>1.035739483436984</v>
       </c>
       <c r="E6">
-        <v>0.9537520816686592</v>
+        <v>0.9537520816686591</v>
       </c>
       <c r="F6">
         <v>0.9188920414585475</v>
@@ -591,13 +591,13 @@
         <v>1.045789024024105</v>
       </c>
       <c r="J6">
-        <v>0.9605985283925426</v>
+        <v>0.9605985283925425</v>
       </c>
       <c r="K6">
         <v>1.045174623577699</v>
       </c>
       <c r="L6">
-        <v>0.9641629209281343</v>
+        <v>0.9641629209281342</v>
       </c>
       <c r="M6">
         <v>0.929784494930032</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.935777264559463</v>
+        <v>0.9357772645594635</v>
       </c>
       <c r="D7">
         <v>1.03446558954773</v>
       </c>
       <c r="E7">
-        <v>0.950098677434928</v>
+        <v>0.9500986774349287</v>
       </c>
       <c r="F7">
-        <v>0.9134739513104512</v>
+        <v>0.9134739513104515</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044967297848193</v>
+        <v>1.044967297848194</v>
       </c>
       <c r="J7">
-        <v>0.9569730449836759</v>
+        <v>0.9569730449836762</v>
       </c>
       <c r="K7">
-        <v>1.044162238368343</v>
+        <v>1.044162238368344</v>
       </c>
       <c r="L7">
-        <v>0.960835951248471</v>
+        <v>0.9608359512484715</v>
       </c>
       <c r="M7">
-        <v>0.9247390982761172</v>
+        <v>0.9247390982761176</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9163819473587254</v>
+        <v>0.9163819473587262</v>
       </c>
       <c r="D8">
-        <v>1.028844223600345</v>
+        <v>1.028844223600346</v>
       </c>
       <c r="E8">
-        <v>0.9337846714824455</v>
+        <v>0.9337846714824463</v>
       </c>
       <c r="F8">
-        <v>0.8891819770519875</v>
+        <v>0.8891819770519885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041261654361143</v>
+        <v>1.041261654361144</v>
       </c>
       <c r="J8">
-        <v>0.9407288787038139</v>
+        <v>0.9407288787038149</v>
       </c>
       <c r="K8">
-        <v>1.039647157632041</v>
+        <v>1.039647157632042</v>
       </c>
       <c r="L8">
-        <v>0.9459431182821645</v>
+        <v>0.9459431182821654</v>
       </c>
       <c r="M8">
-        <v>0.9021064396829092</v>
+        <v>0.90210643968291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8756257379453867</v>
+        <v>0.8756257379453872</v>
       </c>
       <c r="D9">
-        <v>1.01751229093883</v>
+        <v>1.017512290938829</v>
       </c>
       <c r="E9">
-        <v>0.8996585965607836</v>
+        <v>0.8996585965607848</v>
       </c>
       <c r="F9">
-        <v>0.8376773256289552</v>
+        <v>0.8376773256289559</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033426650305351</v>
       </c>
       <c r="J9">
-        <v>0.9064893384970961</v>
+        <v>0.9064893384970971</v>
       </c>
       <c r="K9">
         <v>1.030327492261971</v>
       </c>
       <c r="L9">
-        <v>0.9146204788068418</v>
+        <v>0.9146204788068427</v>
       </c>
       <c r="M9">
-        <v>0.8540973501792978</v>
+        <v>0.8540973501792986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8410571628849292</v>
+        <v>0.8410571628849293</v>
       </c>
       <c r="D10">
         <v>1.008503821280958</v>
       </c>
       <c r="E10">
-        <v>0.8708951310502394</v>
+        <v>0.8708951310502391</v>
       </c>
       <c r="F10">
-        <v>0.7932334093441844</v>
+        <v>0.7932334093441842</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.026865528469144</v>
       </c>
       <c r="J10">
-        <v>0.877385285843295</v>
+        <v>0.8773852858432948</v>
       </c>
       <c r="K10">
         <v>1.022721215521231</v>
       </c>
       <c r="L10">
-        <v>0.8880652070528012</v>
+        <v>0.8880652070528011</v>
       </c>
       <c r="M10">
         <v>0.8127048621252797</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8229649254921535</v>
+        <v>0.8229649254921556</v>
       </c>
       <c r="D11">
-        <v>1.004037925042848</v>
+        <v>1.004037925042849</v>
       </c>
       <c r="E11">
-        <v>0.8559141138880944</v>
+        <v>0.8559141138880965</v>
       </c>
       <c r="F11">
-        <v>0.7695722133464391</v>
+        <v>0.7695722133464415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023500590574346</v>
+        <v>1.023500590574347</v>
       </c>
       <c r="J11">
-        <v>0.8621420116446461</v>
+        <v>0.8621420116446481</v>
       </c>
       <c r="K11">
-        <v>1.018884091660566</v>
+        <v>1.018884091660568</v>
       </c>
       <c r="L11">
-        <v>0.8741825540874414</v>
+        <v>0.8741825540874435</v>
       </c>
       <c r="M11">
-        <v>0.7907034844959545</v>
+        <v>0.7907034844959567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.815531114289779</v>
+        <v>0.8155311142897792</v>
       </c>
       <c r="D12">
         <v>1.002255807962537</v>
       </c>
       <c r="E12">
-        <v>0.8497740621478572</v>
+        <v>0.8497740621478574</v>
       </c>
       <c r="F12">
-        <v>0.7597500405447652</v>
+        <v>0.759750040544766</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.02213580278099</v>
       </c>
       <c r="J12">
-        <v>0.8558775542598318</v>
+        <v>0.8558775542598321</v>
       </c>
       <c r="K12">
         <v>1.01733991748695</v>
       </c>
       <c r="L12">
-        <v>0.8684825880726328</v>
+        <v>0.8684825880726332</v>
       </c>
       <c r="M12">
-        <v>0.781580616921891</v>
+        <v>0.7815806169218916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.817164374531728</v>
+        <v>0.8171643745317252</v>
       </c>
       <c r="D13">
-        <v>1.002644649764523</v>
+        <v>1.002644649764522</v>
       </c>
       <c r="E13">
-        <v>0.8511222878192316</v>
+        <v>0.8511222878192292</v>
       </c>
       <c r="F13">
-        <v>0.7619135238252748</v>
+        <v>0.7619135238252711</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022434692425761</v>
+        <v>1.02243469242576</v>
       </c>
       <c r="J13">
-        <v>0.8572539492517123</v>
+        <v>0.8572539492517098</v>
       </c>
       <c r="K13">
-        <v>1.017677492987011</v>
+        <v>1.01767749298701</v>
       </c>
       <c r="L13">
-        <v>0.8697346840056318</v>
+        <v>0.8697346840056295</v>
       </c>
       <c r="M13">
-        <v>0.7835894832819199</v>
+        <v>0.7835894832819165</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8223671931496822</v>
+        <v>0.8223671931496819</v>
       </c>
       <c r="D14">
         <v>1.003893470522979</v>
       </c>
       <c r="E14">
-        <v>0.8554200715424</v>
+        <v>0.8554200715423994</v>
       </c>
       <c r="F14">
-        <v>0.7687847562672673</v>
+        <v>0.7687847562672666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023390442899635</v>
+        <v>1.023390442899634</v>
       </c>
       <c r="J14">
-        <v>0.8616383262668734</v>
+        <v>0.861638326266873</v>
       </c>
       <c r="K14">
-        <v>1.018759206339622</v>
+        <v>1.018759206339621</v>
       </c>
       <c r="L14">
-        <v>0.8737241392740457</v>
+        <v>0.8737241392740454</v>
       </c>
       <c r="M14">
-        <v>0.7899718471651235</v>
+        <v>0.7899718471651229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8254674243972903</v>
+        <v>0.8254674243972859</v>
       </c>
       <c r="D15">
-        <v>1.00464488605754</v>
+        <v>1.004644886057539</v>
       </c>
       <c r="E15">
-        <v>0.8579831338063157</v>
+        <v>0.8579831338063122</v>
       </c>
       <c r="F15">
-        <v>0.7728647949323052</v>
+        <v>0.7728647949323001</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023962492055705</v>
+        <v>1.023962492055704</v>
       </c>
       <c r="J15">
-        <v>0.8642507221710154</v>
+        <v>0.8642507221710115</v>
       </c>
       <c r="K15">
-        <v>1.019408291316943</v>
+        <v>1.019408291316942</v>
       </c>
       <c r="L15">
-        <v>0.8761019557537504</v>
+        <v>0.8761019557537467</v>
       </c>
       <c r="M15">
-        <v>0.793763106874335</v>
+        <v>0.79376310687433</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8421753407142439</v>
+        <v>0.842175340714243</v>
       </c>
       <c r="D16">
         <v>1.008785654173694</v>
       </c>
       <c r="E16">
-        <v>0.8718227224991171</v>
+        <v>0.8718227224991165</v>
       </c>
       <c r="F16">
-        <v>0.7946855590565109</v>
+        <v>0.7946855590565097</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027075317947844</v>
       </c>
       <c r="J16">
-        <v>0.8783272070686912</v>
+        <v>0.8783272070686906</v>
       </c>
       <c r="K16">
-        <v>1.022961855142563</v>
+        <v>1.022961855142564</v>
       </c>
       <c r="L16">
-        <v>0.8889236413072278</v>
+        <v>0.8889236413072273</v>
       </c>
       <c r="M16">
-        <v>0.8140561272795803</v>
+        <v>0.8140561272795793</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8516980824511704</v>
+        <v>0.8516980824511693</v>
       </c>
       <c r="D17">
         <v>1.011212455131123</v>
       </c>
       <c r="E17">
-        <v>0.8797301703167523</v>
+        <v>0.8797301703167513</v>
       </c>
       <c r="F17">
-        <v>0.8070094435555449</v>
+        <v>0.8070094435555436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02886950371286</v>
+        <v>1.028869503712859</v>
       </c>
       <c r="J17">
-        <v>0.8863478031203799</v>
+        <v>0.886347803120379</v>
       </c>
       <c r="K17">
         <v>1.025026704615994</v>
       </c>
       <c r="L17">
-        <v>0.8962360624656928</v>
+        <v>0.8962360624656917</v>
       </c>
       <c r="M17">
-        <v>0.8255276562186042</v>
+        <v>0.825527656218603</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8569728218809752</v>
+        <v>0.8569728218809741</v>
       </c>
       <c r="D18">
         <v>1.012576828958482</v>
       </c>
       <c r="E18">
-        <v>0.8841160942150897</v>
+        <v>0.8841160942150889</v>
       </c>
       <c r="F18">
-        <v>0.8138045697325546</v>
+        <v>0.8138045697325536</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029868672886031</v>
       </c>
       <c r="J18">
-        <v>0.8907895218426339</v>
+        <v>0.8907895218426328</v>
       </c>
       <c r="K18">
         <v>1.026181944730791</v>
       </c>
       <c r="L18">
-        <v>0.9002876877695238</v>
+        <v>0.9002876877695228</v>
       </c>
       <c r="M18">
-        <v>0.8318554213545966</v>
+        <v>0.8318554213545954</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.858728693201288</v>
+        <v>0.8587286932012869</v>
       </c>
       <c r="D19">
-        <v>1.013034131107757</v>
+        <v>1.013034131107756</v>
       </c>
       <c r="E19">
-        <v>0.8855770133881845</v>
+        <v>0.8855770133881832</v>
       </c>
       <c r="F19">
-        <v>0.8160619283782415</v>
+        <v>0.8160619283782401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030202046728759</v>
+        <v>1.030202046728758</v>
       </c>
       <c r="J19">
-        <v>0.8922679189856501</v>
+        <v>0.8922679189856488</v>
       </c>
       <c r="K19">
         <v>1.026568250677466</v>
       </c>
       <c r="L19">
-        <v>0.9016365727293939</v>
+        <v>0.9016365727293926</v>
       </c>
       <c r="M19">
-        <v>0.833957881677553</v>
+        <v>0.8339578816775517</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1111,10 +1111,10 @@
         <v>1.010957563395012</v>
       </c>
       <c r="E20">
-        <v>0.8789061557236254</v>
+        <v>0.8789061557236253</v>
       </c>
       <c r="F20">
-        <v>0.8057296711750852</v>
+        <v>0.8057296711750853</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>1.028682082249011</v>
       </c>
       <c r="J20">
-        <v>0.8855127507637125</v>
+        <v>0.8855127507637124</v>
       </c>
       <c r="K20">
-        <v>1.024810435388461</v>
+        <v>1.024810435388462</v>
       </c>
       <c r="L20">
         <v>0.8954745139722667</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.820857838761625</v>
+        <v>0.8208578387616245</v>
       </c>
       <c r="D21">
         <v>1.003529601127036</v>
       </c>
       <c r="E21">
-        <v>0.854172809825596</v>
+        <v>0.8541728098255956</v>
       </c>
       <c r="F21">
-        <v>0.7667945560720919</v>
+        <v>0.7667945560720911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023112617968221</v>
+        <v>1.023112617968222</v>
       </c>
       <c r="J21">
-        <v>0.8603664348764458</v>
+        <v>0.8603664348764453</v>
       </c>
       <c r="K21">
-        <v>1.018444411262396</v>
+        <v>1.018444411262397</v>
       </c>
       <c r="L21">
-        <v>0.8725666540386309</v>
+        <v>0.8725666540386304</v>
       </c>
       <c r="M21">
-        <v>0.7881229094137212</v>
+        <v>0.7881229094137204</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7976136208982876</v>
+        <v>0.7976136208982897</v>
       </c>
       <c r="D22">
-        <v>0.9980924407323079</v>
+        <v>0.9980924407323085</v>
       </c>
       <c r="E22">
-        <v>0.8350132525790444</v>
+        <v>0.8350132525790462</v>
       </c>
       <c r="F22">
-        <v>0.7357910565558478</v>
+        <v>0.7357910565558499</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018895294953222</v>
       </c>
       <c r="J22">
-        <v>0.8407763545794147</v>
+        <v>0.8407763545794166</v>
       </c>
       <c r="K22">
         <v>1.013701781696789</v>
       </c>
       <c r="L22">
-        <v>0.854755502272907</v>
+        <v>0.8547555022729089</v>
       </c>
       <c r="M22">
-        <v>0.7593588199223417</v>
+        <v>0.7593588199223438</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8105175346304646</v>
+        <v>0.8105175346304645</v>
       </c>
       <c r="D23">
-        <v>1.001071808675835</v>
+        <v>1.001071808675836</v>
       </c>
       <c r="E23">
-        <v>0.8456382442844965</v>
+        <v>0.8456382442844961</v>
       </c>
       <c r="F23">
-        <v>0.7530885811359372</v>
+        <v>0.753088581135937</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.8516523063043834</v>
       </c>
       <c r="K23">
-        <v>1.016309742728563</v>
+        <v>1.016309742728564</v>
       </c>
       <c r="L23">
-        <v>0.8646398821409831</v>
+        <v>0.8646398821409828</v>
       </c>
       <c r="M23">
-        <v>0.7753974308895589</v>
+        <v>0.7753974308895587</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8511554129763471</v>
+        <v>0.8511554129763466</v>
       </c>
       <c r="D24">
         <v>1.011072893642353</v>
       </c>
       <c r="E24">
-        <v>0.8792791798470735</v>
+        <v>0.8792791798470729</v>
       </c>
       <c r="F24">
-        <v>0.8063091376727666</v>
+        <v>0.8063091376727656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028766914014415</v>
+        <v>1.028766914014414</v>
       </c>
       <c r="J24">
-        <v>0.8858907933151206</v>
+        <v>0.8858907933151199</v>
       </c>
       <c r="K24">
         <v>1.024908307720722</v>
       </c>
       <c r="L24">
-        <v>0.8958192735595394</v>
+        <v>0.8958192735595387</v>
       </c>
       <c r="M24">
-        <v>0.8248756149671893</v>
+        <v>0.8248756149671885</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8871716821914154</v>
+        <v>0.8871716821914143</v>
       </c>
       <c r="D25">
-        <v>1.020649787896925</v>
+        <v>1.020649787896926</v>
       </c>
       <c r="E25">
-        <v>0.9093038530992619</v>
+        <v>0.9093038530992611</v>
       </c>
       <c r="F25">
-        <v>0.8523480397134575</v>
+        <v>0.8523480397134565</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03564287125107</v>
+        <v>1.035642871251069</v>
       </c>
       <c r="J25">
-        <v>0.9161998902279808</v>
+        <v>0.91619989022798</v>
       </c>
       <c r="K25">
         <v>1.03293578196882</v>
       </c>
       <c r="L25">
-        <v>0.9234947112207142</v>
+        <v>0.9234947112207135</v>
       </c>
       <c r="M25">
-        <v>0.8677715566893153</v>
+        <v>0.8677715566893144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9110140760235589</v>
+        <v>0.9110140760235573</v>
       </c>
       <c r="D2">
-        <v>1.027312494085654</v>
+        <v>1.027312494085653</v>
       </c>
       <c r="E2">
-        <v>0.9292777085851576</v>
+        <v>0.9292777085851561</v>
       </c>
       <c r="F2">
-        <v>0.8824386792316897</v>
+        <v>0.8824386792316882</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.040230403936804</v>
       </c>
       <c r="J2">
-        <v>0.9362262848333807</v>
+        <v>0.9362262848333793</v>
       </c>
       <c r="K2">
-        <v>1.038403997281458</v>
+        <v>1.038403997281457</v>
       </c>
       <c r="L2">
-        <v>0.9418189256363957</v>
+        <v>0.9418189256363939</v>
       </c>
       <c r="M2">
-        <v>0.8958214001984</v>
+        <v>0.8958214001983984</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9264346030131547</v>
+        <v>0.9264346030131534</v>
       </c>
       <c r="D3">
-        <v>1.031741496090371</v>
+        <v>1.03174149609037</v>
       </c>
       <c r="E3">
-        <v>0.9422346213399688</v>
+        <v>0.9422346213399677</v>
       </c>
       <c r="F3">
-        <v>0.9017854980089053</v>
+        <v>0.9017854980089043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043187394331946</v>
+        <v>1.043187394331945</v>
       </c>
       <c r="J3">
-        <v>0.9491535290773104</v>
+        <v>0.9491535290773093</v>
       </c>
       <c r="K3">
-        <v>1.04198372935616</v>
+        <v>1.041983729356159</v>
       </c>
       <c r="L3">
-        <v>0.9536641701690594</v>
+        <v>0.9536641701690584</v>
       </c>
       <c r="M3">
-        <v>0.9138510817398146</v>
+        <v>0.9138510817398137</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9357264441033466</v>
+        <v>0.9357264441033467</v>
       </c>
       <c r="D4">
-        <v>1.034450694218904</v>
+        <v>1.034450694218905</v>
       </c>
       <c r="E4">
-        <v>0.9500558721221127</v>
+        <v>0.9500558721221133</v>
       </c>
       <c r="F4">
-        <v>0.9134104269641361</v>
+        <v>0.9134104269641368</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044957648869381</v>
       </c>
       <c r="J4">
-        <v>0.9569305390728218</v>
+        <v>0.9569305390728221</v>
       </c>
       <c r="K4">
         <v>1.04415037635855</v>
       </c>
       <c r="L4">
-        <v>0.9607969520677649</v>
+        <v>0.9607969520677654</v>
       </c>
       <c r="M4">
-        <v>0.9246799367657028</v>
+        <v>0.9246799367657038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9394894827646764</v>
+        <v>0.9394894827646753</v>
       </c>
       <c r="D5">
-        <v>1.035555818667087</v>
+        <v>1.035555818667086</v>
       </c>
       <c r="E5">
-        <v>0.9532262387101514</v>
+        <v>0.9532262387101503</v>
       </c>
       <c r="F5">
-        <v>0.9181126408840209</v>
+        <v>0.9181126408840192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045670978969999</v>
+        <v>1.045670978969998</v>
       </c>
       <c r="J5">
-        <v>0.960076994904583</v>
+        <v>0.960076994904582</v>
       </c>
       <c r="K5">
-        <v>1.045028918891171</v>
+        <v>1.04502891889117</v>
       </c>
       <c r="L5">
-        <v>0.9636842571969633</v>
+        <v>0.963684257196962</v>
       </c>
       <c r="M5">
-        <v>0.929058780043881</v>
+        <v>0.9290587800438794</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>0.9401134385835139</v>
       </c>
       <c r="D6">
-        <v>1.035739483436984</v>
+        <v>1.035739483436983</v>
       </c>
       <c r="E6">
-        <v>0.9537520816686591</v>
+        <v>0.9537520816686592</v>
       </c>
       <c r="F6">
         <v>0.9188920414585475</v>
@@ -591,13 +591,13 @@
         <v>1.045789024024105</v>
       </c>
       <c r="J6">
-        <v>0.9605985283925425</v>
+        <v>0.9605985283925426</v>
       </c>
       <c r="K6">
         <v>1.045174623577699</v>
       </c>
       <c r="L6">
-        <v>0.9641629209281342</v>
+        <v>0.9641629209281343</v>
       </c>
       <c r="M6">
         <v>0.929784494930032</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9357772645594635</v>
+        <v>0.935777264559463</v>
       </c>
       <c r="D7">
         <v>1.03446558954773</v>
       </c>
       <c r="E7">
-        <v>0.9500986774349287</v>
+        <v>0.950098677434928</v>
       </c>
       <c r="F7">
-        <v>0.9134739513104515</v>
+        <v>0.9134739513104512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044967297848194</v>
+        <v>1.044967297848193</v>
       </c>
       <c r="J7">
-        <v>0.9569730449836762</v>
+        <v>0.9569730449836759</v>
       </c>
       <c r="K7">
-        <v>1.044162238368344</v>
+        <v>1.044162238368343</v>
       </c>
       <c r="L7">
-        <v>0.9608359512484715</v>
+        <v>0.960835951248471</v>
       </c>
       <c r="M7">
-        <v>0.9247390982761176</v>
+        <v>0.9247390982761172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9163819473587262</v>
+        <v>0.9163819473587254</v>
       </c>
       <c r="D8">
-        <v>1.028844223600346</v>
+        <v>1.028844223600345</v>
       </c>
       <c r="E8">
-        <v>0.9337846714824463</v>
+        <v>0.9337846714824455</v>
       </c>
       <c r="F8">
-        <v>0.8891819770519885</v>
+        <v>0.8891819770519875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041261654361144</v>
+        <v>1.041261654361143</v>
       </c>
       <c r="J8">
-        <v>0.9407288787038149</v>
+        <v>0.9407288787038139</v>
       </c>
       <c r="K8">
-        <v>1.039647157632042</v>
+        <v>1.039647157632041</v>
       </c>
       <c r="L8">
-        <v>0.9459431182821654</v>
+        <v>0.9459431182821645</v>
       </c>
       <c r="M8">
-        <v>0.90210643968291</v>
+        <v>0.9021064396829092</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8756257379453872</v>
+        <v>0.8756257379453867</v>
       </c>
       <c r="D9">
-        <v>1.017512290938829</v>
+        <v>1.01751229093883</v>
       </c>
       <c r="E9">
-        <v>0.8996585965607848</v>
+        <v>0.8996585965607836</v>
       </c>
       <c r="F9">
-        <v>0.8376773256289559</v>
+        <v>0.8376773256289552</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033426650305351</v>
       </c>
       <c r="J9">
-        <v>0.9064893384970971</v>
+        <v>0.9064893384970961</v>
       </c>
       <c r="K9">
         <v>1.030327492261971</v>
       </c>
       <c r="L9">
-        <v>0.9146204788068427</v>
+        <v>0.9146204788068418</v>
       </c>
       <c r="M9">
-        <v>0.8540973501792986</v>
+        <v>0.8540973501792978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8410571628849293</v>
+        <v>0.8410571628849292</v>
       </c>
       <c r="D10">
         <v>1.008503821280958</v>
       </c>
       <c r="E10">
-        <v>0.8708951310502391</v>
+        <v>0.8708951310502394</v>
       </c>
       <c r="F10">
-        <v>0.7932334093441842</v>
+        <v>0.7932334093441844</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.026865528469144</v>
       </c>
       <c r="J10">
-        <v>0.8773852858432948</v>
+        <v>0.877385285843295</v>
       </c>
       <c r="K10">
         <v>1.022721215521231</v>
       </c>
       <c r="L10">
-        <v>0.8880652070528011</v>
+        <v>0.8880652070528012</v>
       </c>
       <c r="M10">
         <v>0.8127048621252797</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8229649254921556</v>
+        <v>0.8229649254921535</v>
       </c>
       <c r="D11">
-        <v>1.004037925042849</v>
+        <v>1.004037925042848</v>
       </c>
       <c r="E11">
-        <v>0.8559141138880965</v>
+        <v>0.8559141138880944</v>
       </c>
       <c r="F11">
-        <v>0.7695722133464415</v>
+        <v>0.7695722133464391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023500590574347</v>
+        <v>1.023500590574346</v>
       </c>
       <c r="J11">
-        <v>0.8621420116446481</v>
+        <v>0.8621420116446461</v>
       </c>
       <c r="K11">
-        <v>1.018884091660568</v>
+        <v>1.018884091660566</v>
       </c>
       <c r="L11">
-        <v>0.8741825540874435</v>
+        <v>0.8741825540874414</v>
       </c>
       <c r="M11">
-        <v>0.7907034844959567</v>
+        <v>0.7907034844959545</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8155311142897792</v>
+        <v>0.815531114289779</v>
       </c>
       <c r="D12">
         <v>1.002255807962537</v>
       </c>
       <c r="E12">
-        <v>0.8497740621478574</v>
+        <v>0.8497740621478572</v>
       </c>
       <c r="F12">
-        <v>0.759750040544766</v>
+        <v>0.7597500405447652</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.02213580278099</v>
       </c>
       <c r="J12">
-        <v>0.8558775542598321</v>
+        <v>0.8558775542598318</v>
       </c>
       <c r="K12">
         <v>1.01733991748695</v>
       </c>
       <c r="L12">
-        <v>0.8684825880726332</v>
+        <v>0.8684825880726328</v>
       </c>
       <c r="M12">
-        <v>0.7815806169218916</v>
+        <v>0.781580616921891</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8171643745317252</v>
+        <v>0.817164374531728</v>
       </c>
       <c r="D13">
-        <v>1.002644649764522</v>
+        <v>1.002644649764523</v>
       </c>
       <c r="E13">
-        <v>0.8511222878192292</v>
+        <v>0.8511222878192316</v>
       </c>
       <c r="F13">
-        <v>0.7619135238252711</v>
+        <v>0.7619135238252748</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02243469242576</v>
+        <v>1.022434692425761</v>
       </c>
       <c r="J13">
-        <v>0.8572539492517098</v>
+        <v>0.8572539492517123</v>
       </c>
       <c r="K13">
-        <v>1.01767749298701</v>
+        <v>1.017677492987011</v>
       </c>
       <c r="L13">
-        <v>0.8697346840056295</v>
+        <v>0.8697346840056318</v>
       </c>
       <c r="M13">
-        <v>0.7835894832819165</v>
+        <v>0.7835894832819199</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8223671931496819</v>
+        <v>0.8223671931496822</v>
       </c>
       <c r="D14">
         <v>1.003893470522979</v>
       </c>
       <c r="E14">
-        <v>0.8554200715423994</v>
+        <v>0.8554200715424</v>
       </c>
       <c r="F14">
-        <v>0.7687847562672666</v>
+        <v>0.7687847562672673</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023390442899634</v>
+        <v>1.023390442899635</v>
       </c>
       <c r="J14">
-        <v>0.861638326266873</v>
+        <v>0.8616383262668734</v>
       </c>
       <c r="K14">
-        <v>1.018759206339621</v>
+        <v>1.018759206339622</v>
       </c>
       <c r="L14">
-        <v>0.8737241392740454</v>
+        <v>0.8737241392740457</v>
       </c>
       <c r="M14">
-        <v>0.7899718471651229</v>
+        <v>0.7899718471651235</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8254674243972859</v>
+        <v>0.8254674243972903</v>
       </c>
       <c r="D15">
-        <v>1.004644886057539</v>
+        <v>1.00464488605754</v>
       </c>
       <c r="E15">
-        <v>0.8579831338063122</v>
+        <v>0.8579831338063157</v>
       </c>
       <c r="F15">
-        <v>0.7728647949323001</v>
+        <v>0.7728647949323052</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023962492055704</v>
+        <v>1.023962492055705</v>
       </c>
       <c r="J15">
-        <v>0.8642507221710115</v>
+        <v>0.8642507221710154</v>
       </c>
       <c r="K15">
-        <v>1.019408291316942</v>
+        <v>1.019408291316943</v>
       </c>
       <c r="L15">
-        <v>0.8761019557537467</v>
+        <v>0.8761019557537504</v>
       </c>
       <c r="M15">
-        <v>0.79376310687433</v>
+        <v>0.793763106874335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.842175340714243</v>
+        <v>0.8421753407142439</v>
       </c>
       <c r="D16">
         <v>1.008785654173694</v>
       </c>
       <c r="E16">
-        <v>0.8718227224991165</v>
+        <v>0.8718227224991171</v>
       </c>
       <c r="F16">
-        <v>0.7946855590565097</v>
+        <v>0.7946855590565109</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027075317947844</v>
       </c>
       <c r="J16">
-        <v>0.8783272070686906</v>
+        <v>0.8783272070686912</v>
       </c>
       <c r="K16">
-        <v>1.022961855142564</v>
+        <v>1.022961855142563</v>
       </c>
       <c r="L16">
-        <v>0.8889236413072273</v>
+        <v>0.8889236413072278</v>
       </c>
       <c r="M16">
-        <v>0.8140561272795793</v>
+        <v>0.8140561272795803</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8516980824511693</v>
+        <v>0.8516980824511704</v>
       </c>
       <c r="D17">
         <v>1.011212455131123</v>
       </c>
       <c r="E17">
-        <v>0.8797301703167513</v>
+        <v>0.8797301703167523</v>
       </c>
       <c r="F17">
-        <v>0.8070094435555436</v>
+        <v>0.8070094435555449</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028869503712859</v>
+        <v>1.02886950371286</v>
       </c>
       <c r="J17">
-        <v>0.886347803120379</v>
+        <v>0.8863478031203799</v>
       </c>
       <c r="K17">
         <v>1.025026704615994</v>
       </c>
       <c r="L17">
-        <v>0.8962360624656917</v>
+        <v>0.8962360624656928</v>
       </c>
       <c r="M17">
-        <v>0.825527656218603</v>
+        <v>0.8255276562186042</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8569728218809741</v>
+        <v>0.8569728218809752</v>
       </c>
       <c r="D18">
         <v>1.012576828958482</v>
       </c>
       <c r="E18">
-        <v>0.8841160942150889</v>
+        <v>0.8841160942150897</v>
       </c>
       <c r="F18">
-        <v>0.8138045697325536</v>
+        <v>0.8138045697325546</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029868672886031</v>
       </c>
       <c r="J18">
-        <v>0.8907895218426328</v>
+        <v>0.8907895218426339</v>
       </c>
       <c r="K18">
         <v>1.026181944730791</v>
       </c>
       <c r="L18">
-        <v>0.9002876877695228</v>
+        <v>0.9002876877695238</v>
       </c>
       <c r="M18">
-        <v>0.8318554213545954</v>
+        <v>0.8318554213545966</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8587286932012869</v>
+        <v>0.858728693201288</v>
       </c>
       <c r="D19">
-        <v>1.013034131107756</v>
+        <v>1.013034131107757</v>
       </c>
       <c r="E19">
-        <v>0.8855770133881832</v>
+        <v>0.8855770133881845</v>
       </c>
       <c r="F19">
-        <v>0.8160619283782401</v>
+        <v>0.8160619283782415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030202046728758</v>
+        <v>1.030202046728759</v>
       </c>
       <c r="J19">
-        <v>0.8922679189856488</v>
+        <v>0.8922679189856501</v>
       </c>
       <c r="K19">
         <v>1.026568250677466</v>
       </c>
       <c r="L19">
-        <v>0.9016365727293926</v>
+        <v>0.9016365727293939</v>
       </c>
       <c r="M19">
-        <v>0.8339578816775517</v>
+        <v>0.833957881677553</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1111,10 +1111,10 @@
         <v>1.010957563395012</v>
       </c>
       <c r="E20">
-        <v>0.8789061557236253</v>
+        <v>0.8789061557236254</v>
       </c>
       <c r="F20">
-        <v>0.8057296711750853</v>
+        <v>0.8057296711750852</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>1.028682082249011</v>
       </c>
       <c r="J20">
-        <v>0.8855127507637124</v>
+        <v>0.8855127507637125</v>
       </c>
       <c r="K20">
-        <v>1.024810435388462</v>
+        <v>1.024810435388461</v>
       </c>
       <c r="L20">
         <v>0.8954745139722667</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8208578387616245</v>
+        <v>0.820857838761625</v>
       </c>
       <c r="D21">
         <v>1.003529601127036</v>
       </c>
       <c r="E21">
-        <v>0.8541728098255956</v>
+        <v>0.854172809825596</v>
       </c>
       <c r="F21">
-        <v>0.7667945560720911</v>
+        <v>0.7667945560720919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023112617968222</v>
+        <v>1.023112617968221</v>
       </c>
       <c r="J21">
-        <v>0.8603664348764453</v>
+        <v>0.8603664348764458</v>
       </c>
       <c r="K21">
-        <v>1.018444411262397</v>
+        <v>1.018444411262396</v>
       </c>
       <c r="L21">
-        <v>0.8725666540386304</v>
+        <v>0.8725666540386309</v>
       </c>
       <c r="M21">
-        <v>0.7881229094137204</v>
+        <v>0.7881229094137212</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7976136208982897</v>
+        <v>0.7976136208982876</v>
       </c>
       <c r="D22">
-        <v>0.9980924407323085</v>
+        <v>0.9980924407323079</v>
       </c>
       <c r="E22">
-        <v>0.8350132525790462</v>
+        <v>0.8350132525790444</v>
       </c>
       <c r="F22">
-        <v>0.7357910565558499</v>
+        <v>0.7357910565558478</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018895294953222</v>
       </c>
       <c r="J22">
-        <v>0.8407763545794166</v>
+        <v>0.8407763545794147</v>
       </c>
       <c r="K22">
         <v>1.013701781696789</v>
       </c>
       <c r="L22">
-        <v>0.8547555022729089</v>
+        <v>0.854755502272907</v>
       </c>
       <c r="M22">
-        <v>0.7593588199223438</v>
+        <v>0.7593588199223417</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8105175346304645</v>
+        <v>0.8105175346304646</v>
       </c>
       <c r="D23">
-        <v>1.001071808675836</v>
+        <v>1.001071808675835</v>
       </c>
       <c r="E23">
-        <v>0.8456382442844961</v>
+        <v>0.8456382442844965</v>
       </c>
       <c r="F23">
-        <v>0.753088581135937</v>
+        <v>0.7530885811359372</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.8516523063043834</v>
       </c>
       <c r="K23">
-        <v>1.016309742728564</v>
+        <v>1.016309742728563</v>
       </c>
       <c r="L23">
-        <v>0.8646398821409828</v>
+        <v>0.8646398821409831</v>
       </c>
       <c r="M23">
-        <v>0.7753974308895587</v>
+        <v>0.7753974308895589</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8511554129763466</v>
+        <v>0.8511554129763471</v>
       </c>
       <c r="D24">
         <v>1.011072893642353</v>
       </c>
       <c r="E24">
-        <v>0.8792791798470729</v>
+        <v>0.8792791798470735</v>
       </c>
       <c r="F24">
-        <v>0.8063091376727656</v>
+        <v>0.8063091376727666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028766914014414</v>
+        <v>1.028766914014415</v>
       </c>
       <c r="J24">
-        <v>0.8858907933151199</v>
+        <v>0.8858907933151206</v>
       </c>
       <c r="K24">
         <v>1.024908307720722</v>
       </c>
       <c r="L24">
-        <v>0.8958192735595387</v>
+        <v>0.8958192735595394</v>
       </c>
       <c r="M24">
-        <v>0.8248756149671885</v>
+        <v>0.8248756149671893</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8871716821914143</v>
+        <v>0.8871716821914154</v>
       </c>
       <c r="D25">
-        <v>1.020649787896926</v>
+        <v>1.020649787896925</v>
       </c>
       <c r="E25">
-        <v>0.9093038530992611</v>
+        <v>0.9093038530992619</v>
       </c>
       <c r="F25">
-        <v>0.8523480397134565</v>
+        <v>0.8523480397134575</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035642871251069</v>
+        <v>1.03564287125107</v>
       </c>
       <c r="J25">
-        <v>0.91619989022798</v>
+        <v>0.9161998902279808</v>
       </c>
       <c r="K25">
         <v>1.03293578196882</v>
       </c>
       <c r="L25">
-        <v>0.9234947112207135</v>
+        <v>0.9234947112207142</v>
       </c>
       <c r="M25">
-        <v>0.8677715566893144</v>
+        <v>0.8677715566893153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9110140760235573</v>
+        <v>0.9111182741110985</v>
       </c>
       <c r="D2">
-        <v>1.027312494085653</v>
+        <v>1.02732799655843</v>
       </c>
       <c r="E2">
-        <v>0.9292777085851561</v>
+        <v>0.9293688364746221</v>
       </c>
       <c r="F2">
-        <v>0.8824386792316882</v>
+        <v>0.8825502007403432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040230403936804</v>
+        <v>1.040245472332931</v>
       </c>
       <c r="J2">
-        <v>0.9362262848333793</v>
+        <v>0.9363264421901591</v>
       </c>
       <c r="K2">
-        <v>1.038403997281457</v>
+        <v>1.03841929793083</v>
       </c>
       <c r="L2">
-        <v>0.9418189256363939</v>
+        <v>0.9419085229305605</v>
       </c>
       <c r="M2">
-        <v>0.8958214001983984</v>
+        <v>0.8959307792177975</v>
+      </c>
+      <c r="N2">
+        <v>0.9587774594938483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9264346030131534</v>
+        <v>0.9265190787870345</v>
       </c>
       <c r="D3">
-        <v>1.03174149609037</v>
+        <v>1.03175402462387</v>
       </c>
       <c r="E3">
-        <v>0.9422346213399677</v>
+        <v>0.9423087420024527</v>
       </c>
       <c r="F3">
-        <v>0.9017854980089043</v>
+        <v>0.9018750538451861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043187394331945</v>
+        <v>1.04319959770275</v>
       </c>
       <c r="J3">
-        <v>0.9491535290773093</v>
+        <v>0.9492351628636091</v>
       </c>
       <c r="K3">
-        <v>1.041983729356159</v>
+        <v>1.041996109580097</v>
       </c>
       <c r="L3">
-        <v>0.9536641701690584</v>
+        <v>0.9537371890723607</v>
       </c>
       <c r="M3">
-        <v>0.9138510817398137</v>
+        <v>0.9139391482275058</v>
+      </c>
+      <c r="N3">
+        <v>0.9676136541874654</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9357264441033467</v>
+        <v>0.9357997892096879</v>
       </c>
       <c r="D4">
-        <v>1.034450694218905</v>
+        <v>1.034461551797669</v>
       </c>
       <c r="E4">
-        <v>0.9500558721221133</v>
+        <v>0.9501203540834963</v>
       </c>
       <c r="F4">
-        <v>0.9134104269641368</v>
+        <v>0.9134877727995594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044957648869381</v>
+        <v>1.044968238525623</v>
       </c>
       <c r="J4">
-        <v>0.9569305390728221</v>
+        <v>0.9570016349730019</v>
       </c>
       <c r="K4">
-        <v>1.04415037635855</v>
+        <v>1.044161113419724</v>
       </c>
       <c r="L4">
-        <v>0.9607969520677654</v>
+        <v>0.9608605494666876</v>
       </c>
       <c r="M4">
-        <v>0.9246799367657038</v>
+        <v>0.9247561103948388</v>
+      </c>
+      <c r="N4">
+        <v>0.9729285052172754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9394894827646753</v>
+        <v>0.9395584629955192</v>
       </c>
       <c r="D5">
-        <v>1.035555818667086</v>
+        <v>1.035566022608144</v>
       </c>
       <c r="E5">
-        <v>0.9532262387101503</v>
+        <v>0.9532869330255923</v>
       </c>
       <c r="F5">
-        <v>0.9181126408840192</v>
+        <v>0.918185234664922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045670978969998</v>
+        <v>1.045680936493205</v>
       </c>
       <c r="J5">
-        <v>0.960076994904582</v>
+        <v>0.9601439412317652</v>
       </c>
       <c r="K5">
-        <v>1.04502891889117</v>
+        <v>1.045039012675882</v>
       </c>
       <c r="L5">
-        <v>0.963684257196962</v>
+        <v>0.9637441468678452</v>
       </c>
       <c r="M5">
-        <v>0.9290587800438794</v>
+        <v>0.929130315848807</v>
+      </c>
+      <c r="N5">
+        <v>0.9750784772686105</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9401134385835139</v>
+        <v>0.9401817025874002</v>
       </c>
       <c r="D6">
-        <v>1.035739483436983</v>
+        <v>1.035749580214285</v>
       </c>
       <c r="E6">
-        <v>0.9537520816686592</v>
+        <v>0.9538121540567864</v>
       </c>
       <c r="F6">
-        <v>0.9188920414585475</v>
+        <v>0.918963857401687</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045789024024105</v>
+        <v>1.045798877858666</v>
       </c>
       <c r="J6">
-        <v>0.9605985283925426</v>
+        <v>0.9606647928831205</v>
       </c>
       <c r="K6">
-        <v>1.045174623577699</v>
+        <v>1.045184611868248</v>
       </c>
       <c r="L6">
-        <v>0.9641629209281343</v>
+        <v>0.9642222014933296</v>
       </c>
       <c r="M6">
-        <v>0.929784494930032</v>
+        <v>0.9298552710962226</v>
+      </c>
+      <c r="N6">
+        <v>0.9754348188787652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.935777264559463</v>
+        <v>0.9358505501898411</v>
       </c>
       <c r="D7">
-        <v>1.03446558954773</v>
+        <v>1.034476438213679</v>
       </c>
       <c r="E7">
-        <v>0.950098677434928</v>
+        <v>0.950163107815179</v>
       </c>
       <c r="F7">
-        <v>0.9134739513104512</v>
+        <v>0.9135512322585663</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044967297848193</v>
+        <v>1.044977878888349</v>
       </c>
       <c r="J7">
-        <v>0.9569730449836759</v>
+        <v>0.957044084407315</v>
       </c>
       <c r="K7">
-        <v>1.044162238368343</v>
+        <v>1.04417296666</v>
       </c>
       <c r="L7">
-        <v>0.960835951248471</v>
+        <v>0.9608994981755701</v>
       </c>
       <c r="M7">
-        <v>0.9247390982761172</v>
+        <v>0.9248152086128063</v>
+      </c>
+      <c r="N7">
+        <v>0.9729575509303923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9163819473587254</v>
+        <v>0.9164790882211837</v>
       </c>
       <c r="D8">
-        <v>1.028844223600345</v>
+        <v>1.028858660123924</v>
       </c>
       <c r="E8">
-        <v>0.9337846714824455</v>
+        <v>0.9338697242213376</v>
       </c>
       <c r="F8">
-        <v>0.8891819770519875</v>
+        <v>0.8892855894487017</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041261654361143</v>
+        <v>1.041275696788223</v>
       </c>
       <c r="J8">
-        <v>0.9407288787038139</v>
+        <v>0.9408224289635242</v>
       </c>
       <c r="K8">
-        <v>1.039647157632041</v>
+        <v>1.039661412055069</v>
       </c>
       <c r="L8">
-        <v>0.9459431182821645</v>
+        <v>0.9460268000156997</v>
       </c>
       <c r="M8">
-        <v>0.9021064396829092</v>
+        <v>0.9022081566858876</v>
+      </c>
+      <c r="N8">
+        <v>0.9618552763403341</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8756257379453867</v>
+        <v>0.875782937995885</v>
       </c>
       <c r="D9">
-        <v>1.01751229093883</v>
+        <v>1.017535845609141</v>
       </c>
       <c r="E9">
-        <v>0.8996585965607836</v>
+        <v>0.8997949847719796</v>
       </c>
       <c r="F9">
-        <v>0.8376773256289552</v>
+        <v>0.837850031592278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033426650305351</v>
+        <v>1.033449443290833</v>
       </c>
       <c r="J9">
-        <v>0.9064893384970961</v>
+        <v>0.9066384343083784</v>
       </c>
       <c r="K9">
-        <v>1.030327492261971</v>
+        <v>1.030350681409303</v>
       </c>
       <c r="L9">
-        <v>0.9146204788068418</v>
+        <v>0.9147539517510126</v>
       </c>
       <c r="M9">
-        <v>0.8540973501792978</v>
+        <v>0.854265586871756</v>
+      </c>
+      <c r="N9">
+        <v>0.9384519460687034</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8410571628849292</v>
+        <v>0.8412820613443344</v>
       </c>
       <c r="D10">
-        <v>1.008503821280958</v>
+        <v>1.008537716089084</v>
       </c>
       <c r="E10">
-        <v>0.8708951310502394</v>
+        <v>0.8710884870073748</v>
       </c>
       <c r="F10">
-        <v>0.7932334093441844</v>
+        <v>0.7934888456867152</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026865528469144</v>
+        <v>1.02689820101601</v>
       </c>
       <c r="J10">
-        <v>0.877385285843295</v>
+        <v>0.8775954576385462</v>
       </c>
       <c r="K10">
-        <v>1.022721215521231</v>
+        <v>1.022754511684785</v>
       </c>
       <c r="L10">
-        <v>0.8880652070528012</v>
+        <v>0.8882535256137648</v>
       </c>
       <c r="M10">
-        <v>0.8127048621252797</v>
+        <v>0.8129516978169116</v>
+      </c>
+      <c r="N10">
+        <v>0.9185748804968004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8229649254921535</v>
+        <v>0.8232353787976636</v>
       </c>
       <c r="D11">
-        <v>1.004037925042848</v>
+        <v>1.004078777197135</v>
       </c>
       <c r="E11">
-        <v>0.8559141138880944</v>
+        <v>0.8561453728703821</v>
       </c>
       <c r="F11">
-        <v>0.7695722133464391</v>
+        <v>0.7698860948197939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023500590574346</v>
+        <v>1.023539898714617</v>
       </c>
       <c r="J11">
-        <v>0.8621420116446461</v>
+        <v>0.8623926147401827</v>
       </c>
       <c r="K11">
-        <v>1.018884091660566</v>
+        <v>1.018924181508928</v>
       </c>
       <c r="L11">
-        <v>0.8741825540874414</v>
+        <v>0.8744072031544923</v>
       </c>
       <c r="M11">
-        <v>0.7907034844959545</v>
+        <v>0.7910053107593795</v>
+      </c>
+      <c r="N11">
+        <v>0.9081768801975143</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.815531114289779</v>
+        <v>0.8158232002278589</v>
       </c>
       <c r="D12">
-        <v>1.002255807962537</v>
+        <v>1.002299959462788</v>
       </c>
       <c r="E12">
-        <v>0.8497740621478572</v>
+        <v>0.8500232217966687</v>
       </c>
       <c r="F12">
-        <v>0.7597500405447652</v>
+        <v>0.7600924112485298</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02213580278099</v>
+        <v>1.022178256058052</v>
       </c>
       <c r="J12">
-        <v>0.8558775542598318</v>
+        <v>0.8561472137533324</v>
       </c>
       <c r="K12">
-        <v>1.01733991748695</v>
+        <v>1.017383228135841</v>
       </c>
       <c r="L12">
-        <v>0.8684825880726328</v>
+        <v>0.8687243631951116</v>
       </c>
       <c r="M12">
-        <v>0.781580616921891</v>
+        <v>0.7819091174609696</v>
+      </c>
+      <c r="N12">
+        <v>0.9039072208632352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.817164374531728</v>
+        <v>0.8174515364062943</v>
       </c>
       <c r="D13">
-        <v>1.002644649764523</v>
+        <v>1.002688050577016</v>
       </c>
       <c r="E13">
-        <v>0.8511222878192316</v>
+        <v>0.8513673778927217</v>
       </c>
       <c r="F13">
-        <v>0.7619135238252748</v>
+        <v>0.7622493695588999</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022434692425761</v>
+        <v>1.022476430164655</v>
       </c>
       <c r="J13">
-        <v>0.8572539492517123</v>
+        <v>0.8575192782073999</v>
       </c>
       <c r="K13">
-        <v>1.017677492987011</v>
+        <v>1.017720070855412</v>
       </c>
       <c r="L13">
-        <v>0.8697346840056318</v>
+        <v>0.8699725671899836</v>
       </c>
       <c r="M13">
-        <v>0.7835894832819199</v>
+        <v>0.7839118814266537</v>
+      </c>
+      <c r="N13">
+        <v>0.9048451261787138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8223671931496822</v>
+        <v>0.8226393147681033</v>
       </c>
       <c r="D14">
-        <v>1.003893470522979</v>
+        <v>1.003934577246758</v>
       </c>
       <c r="E14">
-        <v>0.8554200715424</v>
+        <v>0.8556527131082643</v>
       </c>
       <c r="F14">
-        <v>0.7687847562672673</v>
+        <v>0.7691008184185941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023390442899635</v>
+        <v>1.02342999373892</v>
       </c>
       <c r="J14">
-        <v>0.8616383262668734</v>
+        <v>0.861890401967667</v>
       </c>
       <c r="K14">
-        <v>1.018759206339622</v>
+        <v>1.018799544713125</v>
       </c>
       <c r="L14">
-        <v>0.8737241392740457</v>
+        <v>0.8739501117433157</v>
       </c>
       <c r="M14">
-        <v>0.7899718471651235</v>
+        <v>0.790275718005142</v>
+      </c>
+      <c r="N14">
+        <v>0.907833499024487</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8254674243972903</v>
+        <v>0.8257310187103143</v>
       </c>
       <c r="D15">
-        <v>1.00464488605754</v>
+        <v>1.004684691392606</v>
       </c>
       <c r="E15">
-        <v>0.8579831338063157</v>
+        <v>0.8582087046937611</v>
       </c>
       <c r="F15">
-        <v>0.7728647949323052</v>
+        <v>0.7731697402149943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023962492055705</v>
+        <v>1.024000802131768</v>
       </c>
       <c r="J15">
-        <v>0.8642507221710154</v>
+        <v>0.8644952653633815</v>
       </c>
       <c r="K15">
-        <v>1.019408291316943</v>
+        <v>1.019447359168008</v>
       </c>
       <c r="L15">
-        <v>0.8761019557537504</v>
+        <v>0.8763211589824226</v>
       </c>
       <c r="M15">
-        <v>0.793763106874335</v>
+        <v>0.7940565495735435</v>
+      </c>
+      <c r="N15">
+        <v>0.9096146193727408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8421753407142439</v>
+        <v>0.8423976990282153</v>
       </c>
       <c r="D16">
-        <v>1.008785654173694</v>
+        <v>1.008819160801164</v>
       </c>
       <c r="E16">
-        <v>0.8718227224991171</v>
+        <v>0.8720139557384856</v>
       </c>
       <c r="F16">
-        <v>0.7946855590565109</v>
+        <v>0.7949378005379815</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027075317947844</v>
+        <v>1.027107620069772</v>
       </c>
       <c r="J16">
-        <v>0.8783272070686912</v>
+        <v>0.8785351105777696</v>
       </c>
       <c r="K16">
-        <v>1.022961855142563</v>
+        <v>1.022994772144184</v>
       </c>
       <c r="L16">
-        <v>0.8889236413072278</v>
+        <v>0.8891099220028396</v>
       </c>
       <c r="M16">
-        <v>0.8140561272795803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8142999453734945</v>
+      </c>
+      <c r="N16">
+        <v>0.9192177450452896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8516980824511704</v>
+        <v>0.8518998890898515</v>
       </c>
       <c r="D17">
-        <v>1.011212455131123</v>
+        <v>1.011242820929125</v>
       </c>
       <c r="E17">
-        <v>0.8797301703167523</v>
+        <v>0.8799041893670871</v>
       </c>
       <c r="F17">
-        <v>0.8070094435555449</v>
+        <v>0.8072360925573561</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02886950371286</v>
+        <v>1.028898807608423</v>
       </c>
       <c r="J17">
-        <v>0.8863478031203799</v>
+        <v>0.8865372931069798</v>
       </c>
       <c r="K17">
-        <v>1.025026704615994</v>
+        <v>1.025056553150821</v>
       </c>
       <c r="L17">
-        <v>0.8962360624656928</v>
+        <v>0.89640580227481</v>
       </c>
       <c r="M17">
-        <v>0.8255276562186042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8257472537711937</v>
+      </c>
+      <c r="N17">
+        <v>0.9246931997485234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8569728218809752</v>
+        <v>0.8571640026268997</v>
       </c>
       <c r="D18">
-        <v>1.012576828958482</v>
+        <v>1.012605571081709</v>
       </c>
       <c r="E18">
-        <v>0.8841160942150897</v>
+        <v>0.8842811837861005</v>
       </c>
       <c r="F18">
-        <v>0.8138045697325546</v>
+        <v>0.8140181677026495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029868672886031</v>
+        <v>1.029896425956591</v>
       </c>
       <c r="J18">
-        <v>0.8907895218426339</v>
+        <v>0.8909694457018383</v>
       </c>
       <c r="K18">
-        <v>1.026181944730791</v>
+        <v>1.026210206499798</v>
       </c>
       <c r="L18">
-        <v>0.9002876877695238</v>
+        <v>0.9004488361144912</v>
       </c>
       <c r="M18">
-        <v>0.8318554213545966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8320626329153875</v>
+      </c>
+      <c r="N18">
+        <v>0.9277264008597066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.858728693201288</v>
+        <v>0.8589164455658828</v>
       </c>
       <c r="D19">
-        <v>1.013034131107757</v>
+        <v>1.01306234945514</v>
       </c>
       <c r="E19">
-        <v>0.8855770133881845</v>
+        <v>0.8857392174652152</v>
       </c>
       <c r="F19">
-        <v>0.8160619283782415</v>
+        <v>0.8162713421450142</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030202046728759</v>
+        <v>1.030229299375773</v>
       </c>
       <c r="J19">
-        <v>0.8922679189856501</v>
+        <v>0.8924447492937694</v>
       </c>
       <c r="K19">
-        <v>1.026568250677466</v>
+        <v>1.026596000491949</v>
       </c>
       <c r="L19">
-        <v>0.9016365727293939</v>
+        <v>0.9017949430293635</v>
       </c>
       <c r="M19">
-        <v>0.833957881677553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8341611170423798</v>
+      </c>
+      <c r="N19">
+        <v>0.9287361169371102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8507065186812043</v>
+        <v>0.8509103801359034</v>
       </c>
       <c r="D20">
-        <v>1.010957563395012</v>
+        <v>1.010988243211078</v>
       </c>
       <c r="E20">
-        <v>0.8789061557236254</v>
+        <v>0.8790818991859763</v>
       </c>
       <c r="F20">
-        <v>0.8057296711750852</v>
+        <v>0.8059588582963805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028682082249011</v>
+        <v>1.028711685999157</v>
       </c>
       <c r="J20">
-        <v>0.8855127507637125</v>
+        <v>0.885704086907297</v>
       </c>
       <c r="K20">
-        <v>1.024810435388461</v>
+        <v>1.024840590760479</v>
       </c>
       <c r="L20">
-        <v>0.8954745139722667</v>
+        <v>0.8956459119945792</v>
       </c>
       <c r="M20">
-        <v>0.8243360995164698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.824558103064686</v>
+      </c>
+      <c r="N20">
+        <v>0.9241230233576653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.820857838761625</v>
+        <v>0.8211342263131532</v>
       </c>
       <c r="D21">
-        <v>1.003529601127036</v>
+        <v>1.003571358703925</v>
       </c>
       <c r="E21">
-        <v>0.854172809825596</v>
+        <v>0.8544089850816512</v>
       </c>
       <c r="F21">
-        <v>0.7667945560720919</v>
+        <v>0.7671162068841413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023112617968221</v>
+        <v>1.023152789288369</v>
       </c>
       <c r="J21">
-        <v>0.8603664348764458</v>
+        <v>0.8606222737473409</v>
       </c>
       <c r="K21">
-        <v>1.018444411262396</v>
+        <v>1.018485385022207</v>
       </c>
       <c r="L21">
-        <v>0.8725666540386309</v>
+        <v>0.8727960084275123</v>
       </c>
       <c r="M21">
-        <v>0.7881229094137212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7884320179252985</v>
+      </c>
+      <c r="N21">
+        <v>0.9069664671380473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7976136208982876</v>
+        <v>0.797967457113682</v>
       </c>
       <c r="D22">
-        <v>0.9980924407323079</v>
+        <v>0.998145988437576</v>
       </c>
       <c r="E22">
-        <v>0.8350132525790444</v>
+        <v>0.8353132290374123</v>
       </c>
       <c r="F22">
-        <v>0.7357910565558478</v>
+        <v>0.7362171616586198</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018895294953222</v>
+        <v>1.018946702626601</v>
       </c>
       <c r="J22">
-        <v>0.8407763545794147</v>
+        <v>0.8411000203636888</v>
       </c>
       <c r="K22">
-        <v>1.013701781696789</v>
+        <v>1.01375426334919</v>
       </c>
       <c r="L22">
-        <v>0.854755502272907</v>
+        <v>0.8550458139936277</v>
       </c>
       <c r="M22">
-        <v>0.7593588199223417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.759765311094424</v>
+      </c>
+      <c r="N22">
+        <v>0.8936256445524033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8105175346304646</v>
+        <v>0.8108253967328516</v>
       </c>
       <c r="D23">
-        <v>1.001071808675835</v>
+        <v>1.00111836395093</v>
       </c>
       <c r="E23">
-        <v>0.8456382442844965</v>
+        <v>0.8459004237524015</v>
       </c>
       <c r="F23">
-        <v>0.7530885811359372</v>
+        <v>0.7534520130569334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021221830427307</v>
+        <v>1.021266574729958</v>
       </c>
       <c r="J23">
-        <v>0.8516523063043834</v>
+        <v>0.8519358142163108</v>
       </c>
       <c r="K23">
-        <v>1.016309742728563</v>
+        <v>1.016355399698573</v>
       </c>
       <c r="L23">
-        <v>0.8646398821409831</v>
+        <v>0.8648941032401812</v>
       </c>
       <c r="M23">
-        <v>0.7753974308895589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7757456022608096</v>
+      </c>
+      <c r="N23">
+        <v>0.9010288111684376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8511554129763471</v>
+        <v>0.8513583418645629</v>
       </c>
       <c r="D24">
-        <v>1.011072893642353</v>
+        <v>1.01110343094216</v>
       </c>
       <c r="E24">
-        <v>0.8792791798470735</v>
+        <v>0.8794541407879527</v>
       </c>
       <c r="F24">
-        <v>0.8063091376727666</v>
+        <v>0.8065371723094447</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028766914014415</v>
+        <v>1.028796381679186</v>
       </c>
       <c r="J24">
-        <v>0.8858907933151206</v>
+        <v>0.8860812917371875</v>
       </c>
       <c r="K24">
-        <v>1.024908307720722</v>
+        <v>1.024938323837124</v>
       </c>
       <c r="L24">
-        <v>0.8958192735595394</v>
+        <v>0.8959899191367979</v>
       </c>
       <c r="M24">
-        <v>0.8248756149671893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8250965261349227</v>
+      </c>
+      <c r="N24">
+        <v>0.9243811490848813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8871716821914154</v>
+        <v>0.8873101788020761</v>
       </c>
       <c r="D25">
-        <v>1.020649787896925</v>
+        <v>1.020670493588938</v>
       </c>
       <c r="E25">
-        <v>0.9093038530992619</v>
+        <v>0.9094243416916671</v>
       </c>
       <c r="F25">
-        <v>0.8523480397134575</v>
+        <v>0.8524987929278536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03564287125107</v>
+        <v>1.035662935508716</v>
       </c>
       <c r="J25">
-        <v>0.9161998902279808</v>
+        <v>0.9163318458189984</v>
       </c>
       <c r="K25">
-        <v>1.03293578196882</v>
+        <v>1.03295618254967</v>
       </c>
       <c r="L25">
-        <v>0.9234947112207142</v>
+        <v>0.9236128071509341</v>
       </c>
       <c r="M25">
-        <v>0.8677715566893153</v>
+        <v>0.8679187557149923</v>
+      </c>
+      <c r="N25">
+        <v>0.9450883145344199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9111182741110985</v>
+        <v>0.8650909063061012</v>
       </c>
       <c r="D2">
-        <v>1.02732799655843</v>
+        <v>1.026954000072843</v>
       </c>
       <c r="E2">
-        <v>0.9293688364746221</v>
+        <v>0.8927084485692418</v>
       </c>
       <c r="F2">
-        <v>0.8825502007403432</v>
+        <v>0.89472086391878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040245472332931</v>
+        <v>1.039881951618153</v>
       </c>
       <c r="J2">
-        <v>0.9363264421901591</v>
+        <v>0.8922204793098327</v>
       </c>
       <c r="K2">
-        <v>1.03841929793083</v>
+        <v>1.038050172554722</v>
       </c>
       <c r="L2">
-        <v>0.9419085229305605</v>
+        <v>0.9058968017420368</v>
       </c>
       <c r="M2">
-        <v>0.8959307792177975</v>
+        <v>0.9078718114449491</v>
       </c>
       <c r="N2">
-        <v>0.9587774594938483</v>
+        <v>0.8934875347295721</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9265190787870345</v>
+        <v>0.907140484524035</v>
       </c>
       <c r="D3">
-        <v>1.03175402462387</v>
+        <v>1.034140530506284</v>
       </c>
       <c r="E3">
-        <v>0.9423087420024527</v>
+        <v>0.9297418333362066</v>
       </c>
       <c r="F3">
-        <v>0.9018750538451861</v>
+        <v>0.9331097811898934</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04319959770275</v>
+        <v>1.04552430529859</v>
       </c>
       <c r="J3">
-        <v>0.9492351628636091</v>
+        <v>0.9305279728506596</v>
       </c>
       <c r="K3">
-        <v>1.041996109580097</v>
+        <v>1.044354445758298</v>
       </c>
       <c r="L3">
-        <v>0.9537371890723607</v>
+        <v>0.9413602830614497</v>
       </c>
       <c r="M3">
-        <v>0.9139391482275058</v>
+        <v>0.9446766699360538</v>
       </c>
       <c r="N3">
-        <v>0.9676136541874654</v>
+        <v>0.931849429305158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9357997892096879</v>
+        <v>0.9296217046436748</v>
       </c>
       <c r="D4">
-        <v>1.034461551797669</v>
+        <v>1.03817878525981</v>
       </c>
       <c r="E4">
-        <v>0.9501203540834963</v>
+        <v>0.9495856584645749</v>
       </c>
       <c r="F4">
-        <v>0.9134877727995594</v>
+        <v>0.9536844957633026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044968238525623</v>
+        <v>1.048594060361211</v>
       </c>
       <c r="J4">
-        <v>0.9570016349730019</v>
+        <v>0.9510147277505827</v>
       </c>
       <c r="K4">
-        <v>1.044161113419724</v>
+        <v>1.047837268181619</v>
       </c>
       <c r="L4">
-        <v>0.9608605494666876</v>
+        <v>0.9603331933693449</v>
       </c>
       <c r="M4">
-        <v>0.9247561103948388</v>
+        <v>0.9643760324184446</v>
       </c>
       <c r="N4">
-        <v>0.9729285052172754</v>
+        <v>0.9523652777469022</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9395584629955192</v>
+        <v>0.9382948916665347</v>
       </c>
       <c r="D5">
-        <v>1.035566022608144</v>
+        <v>1.039770751034154</v>
       </c>
       <c r="E5">
-        <v>0.9532869330255923</v>
+        <v>0.957247591172139</v>
       </c>
       <c r="F5">
-        <v>0.918185234664922</v>
+        <v>0.9616276381288367</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045680936493205</v>
+        <v>1.049784513736989</v>
       </c>
       <c r="J5">
-        <v>0.9601439412317652</v>
+        <v>0.9589176918696306</v>
       </c>
       <c r="K5">
-        <v>1.045039012675882</v>
+        <v>1.049198574461013</v>
       </c>
       <c r="L5">
-        <v>0.9637441468678452</v>
+        <v>0.9676525737473726</v>
       </c>
       <c r="M5">
-        <v>0.929130315848807</v>
+        <v>0.9719754859227787</v>
       </c>
       <c r="N5">
-        <v>0.9750784772686105</v>
+        <v>0.9602794649814824</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9401817025874002</v>
+        <v>0.9397121681927122</v>
       </c>
       <c r="D6">
-        <v>1.035749580214285</v>
+        <v>1.040032626578007</v>
       </c>
       <c r="E6">
-        <v>0.9538121540567864</v>
+        <v>0.9584999025280636</v>
       </c>
       <c r="F6">
-        <v>0.918963857401687</v>
+        <v>0.9629258136790139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045798877858666</v>
+        <v>1.049979270452005</v>
       </c>
       <c r="J6">
-        <v>0.9606647928831205</v>
+        <v>0.9602090196291926</v>
       </c>
       <c r="K6">
-        <v>1.045184611868248</v>
+        <v>1.049421870777141</v>
       </c>
       <c r="L6">
-        <v>0.9642222014933296</v>
+        <v>0.968848543375069</v>
       </c>
       <c r="M6">
-        <v>0.9298552710962226</v>
+        <v>0.9732171641734041</v>
       </c>
       <c r="N6">
-        <v>0.9754348188787652</v>
+        <v>0.96157262657458</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9358505501898411</v>
+        <v>0.9297403358806833</v>
       </c>
       <c r="D7">
-        <v>1.034476438213679</v>
+        <v>1.038200435501276</v>
       </c>
       <c r="E7">
-        <v>0.950163107815179</v>
+        <v>0.9496904367265968</v>
       </c>
       <c r="F7">
-        <v>0.9135512322585663</v>
+        <v>0.9537931255821308</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044977878888349</v>
+        <v>1.048610325013537</v>
       </c>
       <c r="J7">
-        <v>0.957044084407315</v>
+        <v>0.9511228291001047</v>
       </c>
       <c r="K7">
-        <v>1.04417296666</v>
+        <v>1.047855825982077</v>
       </c>
       <c r="L7">
-        <v>0.9608994981755701</v>
+        <v>0.9604333117438169</v>
       </c>
       <c r="M7">
-        <v>0.9248152086128063</v>
+        <v>0.9644799846576496</v>
       </c>
       <c r="N7">
-        <v>0.9729575509303923</v>
+        <v>0.9524735326127405</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9164790882211837</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D8">
-        <v>1.028858660123924</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E8">
-        <v>0.9338697242213376</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F8">
-        <v>0.8892855894487017</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041275696788223</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J8">
-        <v>0.9408224289635242</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K8">
-        <v>1.039661412055069</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L8">
-        <v>0.9460268000156997</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M8">
-        <v>0.9022081566858876</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N8">
-        <v>0.9618552763403341</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.875782937995885</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D9">
-        <v>1.017535845609141</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E9">
-        <v>0.8997949847719796</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F9">
-        <v>0.837850031592278</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033449443290833</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J9">
-        <v>0.9066384343083784</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K9">
-        <v>1.030350681409303</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L9">
-        <v>0.9147539517510126</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M9">
-        <v>0.854265586871756</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N9">
-        <v>0.9384519460687034</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8412820613443344</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D10">
-        <v>1.008537716089084</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E10">
-        <v>0.8710884870073748</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F10">
-        <v>0.7934888456867152</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02689820101601</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J10">
-        <v>0.8775954576385462</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K10">
-        <v>1.022754511684785</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L10">
-        <v>0.8882535256137648</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M10">
-        <v>0.8129516978169116</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N10">
-        <v>0.9185748804968004</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8232353787976636</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D11">
-        <v>1.004078777197135</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E11">
-        <v>0.8561453728703821</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F11">
-        <v>0.7698860948197939</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023539898714617</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J11">
-        <v>0.8623926147401827</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K11">
-        <v>1.018924181508928</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L11">
-        <v>0.8744072031544923</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M11">
-        <v>0.7910053107593795</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N11">
-        <v>0.9081768801975143</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8158232002278589</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D12">
-        <v>1.002299959462788</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E12">
-        <v>0.8500232217966687</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F12">
-        <v>0.7600924112485298</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022178256058052</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J12">
-        <v>0.8561472137533324</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K12">
-        <v>1.017383228135841</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L12">
-        <v>0.8687243631951116</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M12">
-        <v>0.7819091174609696</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N12">
-        <v>0.9039072208632352</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8174515364062943</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D13">
-        <v>1.002688050577016</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E13">
-        <v>0.8513673778927217</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F13">
-        <v>0.7622493695588999</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022476430164655</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J13">
-        <v>0.8575192782073999</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K13">
-        <v>1.017720070855412</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L13">
-        <v>0.8699725671899836</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M13">
-        <v>0.7839118814266537</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N13">
-        <v>0.9048451261787138</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8226393147681033</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D14">
-        <v>1.003934577246758</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E14">
-        <v>0.8556527131082643</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F14">
-        <v>0.7691008184185941</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02342999373892</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J14">
-        <v>0.861890401967667</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K14">
-        <v>1.018799544713125</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L14">
-        <v>0.8739501117433157</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M14">
-        <v>0.790275718005142</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N14">
-        <v>0.907833499024487</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8257310187103143</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D15">
-        <v>1.004684691392606</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E15">
-        <v>0.8582087046937611</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F15">
-        <v>0.7731697402149943</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024000802131768</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J15">
-        <v>0.8644952653633815</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K15">
-        <v>1.019447359168008</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L15">
-        <v>0.8763211589824226</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M15">
-        <v>0.7940565495735435</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N15">
-        <v>0.9096146193727408</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8423976990282153</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D16">
-        <v>1.008819160801164</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E16">
-        <v>0.8720139557384856</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F16">
-        <v>0.7949378005379815</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027107620069772</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J16">
-        <v>0.8785351105777696</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K16">
-        <v>1.022994772144184</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L16">
-        <v>0.8891099220028396</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M16">
-        <v>0.8142999453734945</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N16">
-        <v>0.9192177450452896</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8518998890898515</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D17">
-        <v>1.011242820929125</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E17">
-        <v>0.8799041893670871</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F17">
-        <v>0.8072360925573561</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028898807608423</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J17">
-        <v>0.8865372931069798</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K17">
-        <v>1.025056553150821</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L17">
-        <v>0.89640580227481</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M17">
-        <v>0.8257472537711937</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N17">
-        <v>0.9246931997485234</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8571640026268997</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D18">
-        <v>1.012605571081709</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E18">
-        <v>0.8842811837861005</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F18">
-        <v>0.8140181677026495</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029896425956591</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J18">
-        <v>0.8909694457018383</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K18">
-        <v>1.026210206499798</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L18">
-        <v>0.9004488361144912</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M18">
-        <v>0.8320626329153875</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N18">
-        <v>0.9277264008597066</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8589164455658828</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D19">
-        <v>1.01306234945514</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E19">
-        <v>0.8857392174652152</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F19">
-        <v>0.8162713421450142</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030229299375773</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J19">
-        <v>0.8924447492937694</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K19">
-        <v>1.026596000491949</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L19">
-        <v>0.9017949430293635</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M19">
-        <v>0.8341611170423798</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N19">
-        <v>0.9287361169371102</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8509103801359034</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D20">
-        <v>1.010988243211078</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E20">
-        <v>0.8790818991859763</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F20">
-        <v>0.8059588582963805</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028711685999157</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J20">
-        <v>0.885704086907297</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K20">
-        <v>1.024840590760479</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L20">
-        <v>0.8956459119945792</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M20">
-        <v>0.824558103064686</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N20">
-        <v>0.9241230233576653</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8211342263131532</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D21">
-        <v>1.003571358703925</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E21">
-        <v>0.8544089850816512</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F21">
-        <v>0.7671162068841413</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023152789288369</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J21">
-        <v>0.8606222737473409</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K21">
-        <v>1.018485385022207</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L21">
-        <v>0.8727960084275123</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M21">
-        <v>0.7884320179252985</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N21">
-        <v>0.9069664671380473</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.797967457113682</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D22">
-        <v>0.998145988437576</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E22">
-        <v>0.8353132290374123</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F22">
-        <v>0.7362171616586198</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018946702626601</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J22">
-        <v>0.8411000203636888</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K22">
-        <v>1.01375426334919</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L22">
-        <v>0.8550458139936277</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M22">
-        <v>0.759765311094424</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N22">
-        <v>0.8936256445524033</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8108253967328516</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D23">
-        <v>1.00111836395093</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E23">
-        <v>0.8459004237524015</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F23">
-        <v>0.7534520130569334</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021266574729958</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J23">
-        <v>0.8519358142163108</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K23">
-        <v>1.016355399698573</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L23">
-        <v>0.8648941032401812</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M23">
-        <v>0.7757456022608096</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N23">
-        <v>0.9010288111684376</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8513583418645629</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D24">
-        <v>1.01110343094216</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E24">
-        <v>0.8794541407879527</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F24">
-        <v>0.8065371723094447</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028796381679186</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J24">
-        <v>0.8860812917371875</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K24">
-        <v>1.024938323837124</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L24">
-        <v>0.8959899191367979</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M24">
-        <v>0.8250965261349227</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N24">
-        <v>0.9243811490848813</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8873101788020761</v>
+        <v>0.8805849737356521</v>
       </c>
       <c r="D25">
-        <v>1.020670493588938</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E25">
-        <v>0.9094243416916671</v>
+        <v>0.9063394871722564</v>
       </c>
       <c r="F25">
-        <v>0.8524987929278536</v>
+        <v>0.908847730476766</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035662935508716</v>
+        <v>1.041942431660304</v>
       </c>
       <c r="J25">
-        <v>0.9163318458189984</v>
+        <v>0.9063320258321522</v>
       </c>
       <c r="K25">
-        <v>1.03295618254967</v>
+        <v>1.040338206933429</v>
       </c>
       <c r="L25">
-        <v>0.9236128071509341</v>
+        <v>0.9189577314082094</v>
       </c>
       <c r="M25">
-        <v>0.8679187557149923</v>
+        <v>0.92142246193559</v>
       </c>
       <c r="N25">
-        <v>0.9450883145344199</v>
+        <v>0.9076191212665703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8650909063061012</v>
+        <v>1.018686982659353</v>
       </c>
       <c r="D2">
-        <v>1.026954000072843</v>
+        <v>1.048937126351091</v>
       </c>
       <c r="E2">
-        <v>0.8927084485692418</v>
+        <v>1.033591415936116</v>
       </c>
       <c r="F2">
-        <v>0.89472086391878</v>
+        <v>1.047201841919775</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039881951618153</v>
+        <v>1.05460232041567</v>
       </c>
       <c r="J2">
-        <v>0.8922204793098327</v>
+        <v>1.040322781801935</v>
       </c>
       <c r="K2">
-        <v>1.038050172554722</v>
+        <v>1.059754326356648</v>
       </c>
       <c r="L2">
-        <v>0.9058968017420368</v>
+        <v>1.04460179448717</v>
       </c>
       <c r="M2">
-        <v>0.9078718114449491</v>
+        <v>1.058040532807799</v>
       </c>
       <c r="N2">
-        <v>0.8934875347295721</v>
+        <v>1.016818792726775</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.907140484524035</v>
+        <v>1.023673183658183</v>
       </c>
       <c r="D3">
-        <v>1.034140530506284</v>
+        <v>1.052457027034201</v>
       </c>
       <c r="E3">
-        <v>0.9297418333362066</v>
+        <v>1.037698981681283</v>
       </c>
       <c r="F3">
-        <v>0.9331097811898934</v>
+        <v>1.051446198362168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04552430529859</v>
+        <v>1.056111779235847</v>
       </c>
       <c r="J3">
-        <v>0.9305279728506596</v>
+        <v>1.04353865753124</v>
       </c>
       <c r="K3">
-        <v>1.044354445758298</v>
+        <v>1.062459981364276</v>
       </c>
       <c r="L3">
-        <v>0.9413602830614497</v>
+        <v>1.047871191542691</v>
       </c>
       <c r="M3">
-        <v>0.9446766699360538</v>
+        <v>1.061460558763799</v>
       </c>
       <c r="N3">
-        <v>0.931849429305158</v>
+        <v>1.017929593281137</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9296217046436748</v>
+        <v>1.026831859668411</v>
       </c>
       <c r="D4">
-        <v>1.03817878525981</v>
+        <v>1.054690442818736</v>
       </c>
       <c r="E4">
-        <v>0.9495856584645749</v>
+        <v>1.040306978129067</v>
       </c>
       <c r="F4">
-        <v>0.9536844957633026</v>
+        <v>1.054141306711158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048594060361211</v>
+        <v>1.057059511662371</v>
       </c>
       <c r="J4">
-        <v>0.9510147277505827</v>
+        <v>1.045573245793638</v>
       </c>
       <c r="K4">
-        <v>1.047837268181619</v>
+        <v>1.06417074122328</v>
       </c>
       <c r="L4">
-        <v>0.9603331933693449</v>
+        <v>1.049942104939895</v>
       </c>
       <c r="M4">
-        <v>0.9643760324184446</v>
+        <v>1.063627421263192</v>
       </c>
       <c r="N4">
-        <v>0.9523652777469022</v>
+        <v>1.01863182672316</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9382948916665347</v>
+        <v>1.028144170130355</v>
       </c>
       <c r="D5">
-        <v>1.039770751034154</v>
+        <v>1.055619131904931</v>
       </c>
       <c r="E5">
-        <v>0.957247591172139</v>
+        <v>1.041391869860764</v>
       </c>
       <c r="F5">
-        <v>0.9616276381288367</v>
+        <v>1.055262489538989</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049784513736989</v>
+        <v>1.057451179653051</v>
       </c>
       <c r="J5">
-        <v>0.9589176918696306</v>
+        <v>1.046417874232089</v>
       </c>
       <c r="K5">
-        <v>1.049198574461013</v>
+        <v>1.064880660770429</v>
       </c>
       <c r="L5">
-        <v>0.9676525737473726</v>
+        <v>1.050802398712818</v>
       </c>
       <c r="M5">
-        <v>0.9719754859227787</v>
+        <v>1.06452769356839</v>
       </c>
       <c r="N5">
-        <v>0.9602794649814824</v>
+        <v>1.018923212312441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9397121681927122</v>
+        <v>1.02836361557023</v>
       </c>
       <c r="D6">
-        <v>1.040032626578007</v>
+        <v>1.055774472090846</v>
       </c>
       <c r="E6">
-        <v>0.9584999025280636</v>
+        <v>1.041573365098707</v>
       </c>
       <c r="F6">
-        <v>0.9629258136790139</v>
+        <v>1.055450058950373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049979270452005</v>
+        <v>1.057516551188834</v>
       </c>
       <c r="J6">
-        <v>0.9602090196291926</v>
+        <v>1.046559073320681</v>
       </c>
       <c r="K6">
-        <v>1.049421870777141</v>
+        <v>1.064999323058035</v>
       </c>
       <c r="L6">
-        <v>0.968848543375069</v>
+        <v>1.050946250890694</v>
       </c>
       <c r="M6">
-        <v>0.9732171641734041</v>
+        <v>1.064678237438748</v>
       </c>
       <c r="N6">
-        <v>0.96157262657458</v>
+        <v>1.018971915921175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9297403358806833</v>
+        <v>1.026849455316337</v>
       </c>
       <c r="D7">
-        <v>1.038200435501276</v>
+        <v>1.054702891799138</v>
       </c>
       <c r="E7">
-        <v>0.9496904367265968</v>
+        <v>1.040321519178182</v>
       </c>
       <c r="F7">
-        <v>0.9537931255821308</v>
+        <v>1.054156333977108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048610325013537</v>
+        <v>1.057064771472962</v>
       </c>
       <c r="J7">
-        <v>0.9511228291001047</v>
+        <v>1.045584573374724</v>
       </c>
       <c r="K7">
-        <v>1.047855825982077</v>
+        <v>1.064180263311972</v>
       </c>
       <c r="L7">
-        <v>0.9604333117438169</v>
+        <v>1.04995364030692</v>
       </c>
       <c r="M7">
-        <v>0.9644799846576496</v>
+        <v>1.06363949222731</v>
       </c>
       <c r="N7">
-        <v>0.9524735326127405</v>
+        <v>1.018635735134883</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8805849737356521</v>
+        <v>1.020386498944575</v>
       </c>
       <c r="D8">
-        <v>1.029544093645104</v>
+        <v>1.050136055323771</v>
       </c>
       <c r="E8">
-        <v>0.9063394871722564</v>
+        <v>1.034990179409589</v>
       </c>
       <c r="F8">
-        <v>0.908847730476766</v>
+        <v>1.048647127282866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041942431660304</v>
+        <v>1.055118563458922</v>
       </c>
       <c r="J8">
-        <v>0.9063320258321522</v>
+        <v>1.041419418361238</v>
       </c>
       <c r="K8">
-        <v>1.040338206933429</v>
+        <v>1.060677170976244</v>
       </c>
       <c r="L8">
-        <v>0.9189577314082094</v>
+        <v>1.045716161268622</v>
       </c>
       <c r="M8">
-        <v>0.92142246193559</v>
+        <v>1.059206122589013</v>
       </c>
       <c r="N8">
-        <v>0.9076191212665703</v>
+        <v>1.017197691936417</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8805849737356521</v>
+        <v>1.008449695012457</v>
       </c>
       <c r="D9">
-        <v>1.029544093645104</v>
+        <v>1.041733972128928</v>
       </c>
       <c r="E9">
-        <v>0.9063394871722564</v>
+        <v>1.025193230619758</v>
       </c>
       <c r="F9">
-        <v>0.908847730476766</v>
+        <v>1.038525819546962</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041942431660304</v>
+        <v>1.051458431654185</v>
       </c>
       <c r="J9">
-        <v>0.9063320258321522</v>
+        <v>1.033707561046544</v>
       </c>
       <c r="K9">
-        <v>1.040338206933429</v>
+        <v>1.054184382040591</v>
       </c>
       <c r="L9">
-        <v>0.9189577314082094</v>
+        <v>1.037890373664931</v>
       </c>
       <c r="M9">
-        <v>0.92142246193559</v>
+        <v>1.051023304160973</v>
       </c>
       <c r="N9">
-        <v>0.9076191212665703</v>
+        <v>1.01453117882484</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8805849737356521</v>
+        <v>1.000078998836387</v>
       </c>
       <c r="D10">
-        <v>1.029544093645104</v>
+        <v>1.035869875105735</v>
       </c>
       <c r="E10">
-        <v>0.9063394871722564</v>
+        <v>1.018360794926904</v>
       </c>
       <c r="F10">
-        <v>0.908847730476766</v>
+        <v>1.031469509539695</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041942431660304</v>
+        <v>1.048850329331492</v>
       </c>
       <c r="J10">
-        <v>0.9063320258321522</v>
+        <v>1.028289482793029</v>
       </c>
       <c r="K10">
-        <v>1.040338206933429</v>
+        <v>1.049620343731883</v>
       </c>
       <c r="L10">
-        <v>0.9189577314082094</v>
+        <v>1.032406268358502</v>
       </c>
       <c r="M10">
-        <v>0.92142246193559</v>
+        <v>1.045292904726677</v>
       </c>
       <c r="N10">
-        <v>0.9076191212665703</v>
+        <v>1.012655585066186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8805849737356521</v>
+        <v>0.9963456715433886</v>
       </c>
       <c r="D11">
-        <v>1.029544093645104</v>
+        <v>1.033262474870775</v>
       </c>
       <c r="E11">
-        <v>0.9063394871722564</v>
+        <v>1.01532342022786</v>
       </c>
       <c r="F11">
-        <v>0.908847730476766</v>
+        <v>1.028333323222505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041942431660304</v>
+        <v>1.047677991649948</v>
       </c>
       <c r="J11">
-        <v>0.9063320258321522</v>
+        <v>1.025871269042383</v>
       </c>
       <c r="K11">
-        <v>1.040338206933429</v>
+        <v>1.047583237089445</v>
       </c>
       <c r="L11">
-        <v>0.9189577314082094</v>
+        <v>1.02996203157137</v>
       </c>
       <c r="M11">
-        <v>0.92142246193559</v>
+        <v>1.042739989822003</v>
       </c>
       <c r="N11">
-        <v>0.9076191212665703</v>
+        <v>1.011818052699967</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8805849737356521</v>
+        <v>0.9949416047047124</v>
       </c>
       <c r="D12">
-        <v>1.029544093645104</v>
+        <v>1.032283181592781</v>
       </c>
       <c r="E12">
-        <v>0.9063394871722564</v>
+        <v>1.01418266598577</v>
       </c>
       <c r="F12">
-        <v>0.908847730476766</v>
+        <v>1.027155579638494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041942431660304</v>
+        <v>1.04723577964159</v>
       </c>
       <c r="J12">
-        <v>0.9063320258321522</v>
+        <v>1.024961598544752</v>
       </c>
       <c r="K12">
-        <v>1.040338206933429</v>
+        <v>1.04681696439827</v>
       </c>
       <c r="L12">
-        <v>0.9189577314082094</v>
+        <v>1.029043100970259</v>
       </c>
       <c r="M12">
-        <v>0.92142246193559</v>
+        <v>1.041780380482707</v>
       </c>
       <c r="N12">
-        <v>0.9076191212665703</v>
+        <v>1.01150294207027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8805849737356521</v>
+        <v>0.995243583566648</v>
       </c>
       <c r="D13">
-        <v>1.029544093645104</v>
+        <v>1.032493740658599</v>
       </c>
       <c r="E13">
-        <v>0.9063394871722564</v>
+        <v>1.014427940596685</v>
       </c>
       <c r="F13">
-        <v>0.908847730476766</v>
+        <v>1.027408801622757</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041942431660304</v>
+        <v>1.047330946152127</v>
       </c>
       <c r="J13">
-        <v>0.9063320258321522</v>
+        <v>1.025157253666288</v>
       </c>
       <c r="K13">
-        <v>1.040338206933429</v>
+        <v>1.046981774676051</v>
       </c>
       <c r="L13">
-        <v>0.9189577314082094</v>
+        <v>1.029240723693753</v>
       </c>
       <c r="M13">
-        <v>0.92142246193559</v>
+        <v>1.041986743090674</v>
       </c>
       <c r="N13">
-        <v>0.9076191212665703</v>
+        <v>1.011570719374103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8805849737356521</v>
+        <v>0.9962299708036749</v>
       </c>
       <c r="D14">
-        <v>1.029544093645104</v>
+        <v>1.033181749537492</v>
       </c>
       <c r="E14">
-        <v>0.9063394871722564</v>
+        <v>1.015229385047381</v>
       </c>
       <c r="F14">
-        <v>0.908847730476766</v>
+        <v>1.028236236360135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041942431660304</v>
+        <v>1.047641577800904</v>
       </c>
       <c r="J14">
-        <v>0.9063320258321522</v>
+        <v>1.025796312352567</v>
       </c>
       <c r="K14">
-        <v>1.040338206933429</v>
+        <v>1.047520095370812</v>
       </c>
       <c r="L14">
-        <v>0.9189577314082094</v>
+        <v>1.029886301031196</v>
       </c>
       <c r="M14">
-        <v>0.92142246193559</v>
+        <v>1.042660903138399</v>
       </c>
       <c r="N14">
-        <v>0.9076191212665703</v>
+        <v>1.011792088645012</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8805849737356521</v>
+        <v>0.9968353871291182</v>
       </c>
       <c r="D15">
-        <v>1.029544093645104</v>
+        <v>1.033604208054853</v>
       </c>
       <c r="E15">
-        <v>0.9063394871722564</v>
+        <v>1.015721498623403</v>
       </c>
       <c r="F15">
-        <v>0.908847730476766</v>
+        <v>1.028744325325514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041942431660304</v>
+        <v>1.047832064210003</v>
       </c>
       <c r="J15">
-        <v>0.9063320258321522</v>
+        <v>1.026188523158224</v>
       </c>
       <c r="K15">
-        <v>1.040338206933429</v>
+        <v>1.047850486055388</v>
       </c>
       <c r="L15">
-        <v>0.9189577314082094</v>
+        <v>1.030282582636039</v>
       </c>
       <c r="M15">
-        <v>0.92142246193559</v>
+        <v>1.043074754135462</v>
       </c>
       <c r="N15">
-        <v>0.9076191212665703</v>
+        <v>1.011927943465233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8805849737356521</v>
+        <v>1.000324392163193</v>
       </c>
       <c r="D16">
-        <v>1.029544093645104</v>
+        <v>1.036041437285597</v>
       </c>
       <c r="E16">
-        <v>0.9063394871722564</v>
+        <v>1.018560656011339</v>
       </c>
       <c r="F16">
-        <v>0.908847730476766</v>
+        <v>1.031675888544246</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041942431660304</v>
+        <v>1.048927202910545</v>
       </c>
       <c r="J16">
-        <v>0.9063320258321522</v>
+        <v>1.028448401484137</v>
       </c>
       <c r="K16">
-        <v>1.040338206933429</v>
+        <v>1.049754219381571</v>
       </c>
       <c r="L16">
-        <v>0.9189577314082094</v>
+        <v>1.032566969888644</v>
       </c>
       <c r="M16">
-        <v>0.92142246193559</v>
+        <v>1.045460775584387</v>
       </c>
       <c r="N16">
-        <v>0.9076191212665703</v>
+        <v>1.012710617740696</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8805849737356521</v>
+        <v>1.002483150455217</v>
       </c>
       <c r="D17">
-        <v>1.029544093645104</v>
+        <v>1.037551615482485</v>
       </c>
       <c r="E17">
-        <v>0.9063394871722564</v>
+        <v>1.020319995629923</v>
       </c>
       <c r="F17">
-        <v>0.908847730476766</v>
+        <v>1.033492686993907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041942431660304</v>
+        <v>1.049602439768235</v>
       </c>
       <c r="J17">
-        <v>0.9063320258321522</v>
+        <v>1.029846238162181</v>
       </c>
       <c r="K17">
-        <v>1.040338206933429</v>
+        <v>1.050931776646854</v>
       </c>
       <c r="L17">
-        <v>0.9189577314082094</v>
+        <v>1.033980881387448</v>
       </c>
       <c r="M17">
-        <v>0.92142246193559</v>
+        <v>1.046937891697119</v>
       </c>
       <c r="N17">
-        <v>0.9076191212665703</v>
+        <v>1.013194635307796</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8805849737356521</v>
+        <v>1.003731895517884</v>
       </c>
       <c r="D18">
-        <v>1.029544093645104</v>
+        <v>1.038425934383041</v>
       </c>
       <c r="E18">
-        <v>0.9063394871722564</v>
+        <v>1.021338626359334</v>
       </c>
       <c r="F18">
-        <v>0.908847730476766</v>
+        <v>1.034544652139027</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041942431660304</v>
+        <v>1.049992164749586</v>
       </c>
       <c r="J18">
-        <v>0.9063320258321522</v>
+        <v>1.030654653935968</v>
       </c>
       <c r="K18">
-        <v>1.040338206933429</v>
+        <v>1.051612787640695</v>
       </c>
       <c r="L18">
-        <v>0.9189577314082094</v>
+        <v>1.034798919543937</v>
       </c>
       <c r="M18">
-        <v>0.92142246193559</v>
+        <v>1.047792600441053</v>
       </c>
       <c r="N18">
-        <v>0.9076191212665703</v>
+        <v>1.013474519251238</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8805849737356521</v>
+        <v>1.004155946743747</v>
       </c>
       <c r="D19">
-        <v>1.029544093645104</v>
+        <v>1.03872296062629</v>
       </c>
       <c r="E19">
-        <v>0.9063394871722564</v>
+        <v>1.021684690447032</v>
       </c>
       <c r="F19">
-        <v>0.908847730476766</v>
+        <v>1.034902051964653</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041942431660304</v>
+        <v>1.05012435900718</v>
       </c>
       <c r="J19">
-        <v>0.9063320258321522</v>
+        <v>1.03092914673871</v>
       </c>
       <c r="K19">
-        <v>1.040338206933429</v>
+        <v>1.051844017918642</v>
       </c>
       <c r="L19">
-        <v>0.9189577314082094</v>
+        <v>1.035076734507453</v>
       </c>
       <c r="M19">
-        <v>0.92142246193559</v>
+        <v>1.048082886124854</v>
       </c>
       <c r="N19">
-        <v>0.9076191212665703</v>
+        <v>1.01356954518977</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8805849737356521</v>
+        <v>1.002252621131584</v>
       </c>
       <c r="D20">
-        <v>1.029544093645104</v>
+        <v>1.037390268164333</v>
       </c>
       <c r="E20">
-        <v>0.9063394871722564</v>
+        <v>1.020132022144761</v>
       </c>
       <c r="F20">
-        <v>0.908847730476766</v>
+        <v>1.033298567410812</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041942431660304</v>
+        <v>1.049530422390288</v>
       </c>
       <c r="J20">
-        <v>0.9063320258321522</v>
+        <v>1.029696983333133</v>
       </c>
       <c r="K20">
-        <v>1.040338206933429</v>
+        <v>1.050806042983138</v>
       </c>
       <c r="L20">
-        <v>0.9189577314082094</v>
+        <v>1.033829876274955</v>
       </c>
       <c r="M20">
-        <v>0.92142246193559</v>
+        <v>1.046780125600395</v>
       </c>
       <c r="N20">
-        <v>0.9076191212665703</v>
+        <v>1.013142958094353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8805849737356521</v>
+        <v>0.9959399915401362</v>
       </c>
       <c r="D21">
-        <v>1.029544093645104</v>
+        <v>1.032979450435841</v>
       </c>
       <c r="E21">
-        <v>0.9063394871722564</v>
+        <v>1.014993731511599</v>
       </c>
       <c r="F21">
-        <v>0.908847730476766</v>
+        <v>1.027992937275234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041942431660304</v>
+        <v>1.04755029340501</v>
       </c>
       <c r="J21">
-        <v>0.9063320258321522</v>
+        <v>1.025608446282886</v>
       </c>
       <c r="K21">
-        <v>1.040338206933429</v>
+        <v>1.0473618422207</v>
       </c>
       <c r="L21">
-        <v>0.9189577314082094</v>
+        <v>1.029696503999799</v>
       </c>
       <c r="M21">
-        <v>0.92142246193559</v>
+        <v>1.042462697837428</v>
       </c>
       <c r="N21">
-        <v>0.9076191212665703</v>
+        <v>1.01172701339182</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8805849737356521</v>
+        <v>0.9918700954791324</v>
       </c>
       <c r="D22">
-        <v>1.029544093645104</v>
+        <v>1.0301434768557</v>
       </c>
       <c r="E22">
-        <v>0.9063394871722564</v>
+        <v>1.011690165159957</v>
       </c>
       <c r="F22">
-        <v>0.908847730476766</v>
+        <v>1.024582499141009</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041942431660304</v>
+        <v>1.04626607295844</v>
       </c>
       <c r="J22">
-        <v>0.9063320258321522</v>
+        <v>1.022971312457372</v>
       </c>
       <c r="K22">
-        <v>1.040338206933429</v>
+        <v>1.045140538172759</v>
       </c>
       <c r="L22">
-        <v>0.9189577314082094</v>
+        <v>1.027033541147674</v>
       </c>
       <c r="M22">
-        <v>0.92142246193559</v>
+        <v>1.039682210787966</v>
       </c>
       <c r="N22">
-        <v>0.9076191212665703</v>
+        <v>1.010813419948949</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8805849737356521</v>
+        <v>0.9940375437305562</v>
       </c>
       <c r="D23">
-        <v>1.029544093645104</v>
+        <v>1.0316530161155</v>
       </c>
       <c r="E23">
-        <v>0.9063394871722564</v>
+        <v>1.013448602826135</v>
       </c>
       <c r="F23">
-        <v>0.908847730476766</v>
+        <v>1.02639775040353</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041942431660304</v>
+        <v>1.046950684632228</v>
       </c>
       <c r="J23">
-        <v>0.9063320258321522</v>
+        <v>1.024375823120227</v>
       </c>
       <c r="K23">
-        <v>1.040338206933429</v>
+        <v>1.046323544689272</v>
       </c>
       <c r="L23">
-        <v>0.9189577314082094</v>
+        <v>1.028451513166842</v>
       </c>
       <c r="M23">
-        <v>0.92142246193559</v>
+        <v>1.041162657216802</v>
       </c>
       <c r="N23">
-        <v>0.9076191212665703</v>
+        <v>1.011300015460325</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8805849737356521</v>
+        <v>1.002356819543873</v>
       </c>
       <c r="D24">
-        <v>1.029544093645104</v>
+        <v>1.037463194251291</v>
       </c>
       <c r="E24">
-        <v>0.9063394871722564</v>
+        <v>1.020216982591293</v>
       </c>
       <c r="F24">
-        <v>0.908847730476766</v>
+        <v>1.033386305571466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041942431660304</v>
+        <v>1.049562976682716</v>
       </c>
       <c r="J24">
-        <v>0.9063320258321522</v>
+        <v>1.029764446502908</v>
       </c>
       <c r="K24">
-        <v>1.040338206933429</v>
+        <v>1.050862874622102</v>
       </c>
       <c r="L24">
-        <v>0.9189577314082094</v>
+        <v>1.033898129563182</v>
       </c>
       <c r="M24">
-        <v>0.92142246193559</v>
+        <v>1.046851434490465</v>
       </c>
       <c r="N24">
-        <v>0.9076191212665703</v>
+        <v>1.01316631631397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8805849737356521</v>
+        <v>1.011604976556028</v>
       </c>
       <c r="D25">
-        <v>1.029544093645104</v>
+        <v>1.04395054460146</v>
       </c>
       <c r="E25">
-        <v>0.9063394871722564</v>
+        <v>1.02777668864381</v>
       </c>
       <c r="F25">
-        <v>0.908847730476766</v>
+        <v>1.041194457242251</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041942431660304</v>
+        <v>1.052433275249327</v>
       </c>
       <c r="J25">
-        <v>0.9063320258321522</v>
+        <v>1.03574800072622</v>
       </c>
       <c r="K25">
-        <v>1.040338206933429</v>
+        <v>1.055902852470601</v>
       </c>
       <c r="L25">
-        <v>0.9189577314082094</v>
+        <v>1.03995858389666</v>
       </c>
       <c r="M25">
-        <v>0.92142246193559</v>
+        <v>1.053185250983506</v>
       </c>
       <c r="N25">
-        <v>0.9076191212665703</v>
+        <v>1.015237110149296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018686982659353</v>
+        <v>1.049409018489615</v>
       </c>
       <c r="D2">
-        <v>1.048937126351091</v>
+        <v>1.061747717870855</v>
       </c>
       <c r="E2">
-        <v>1.033591415936116</v>
+        <v>1.057176091053682</v>
       </c>
       <c r="F2">
-        <v>1.047201841919775</v>
+        <v>1.069272477184303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05460232041567</v>
+        <v>1.0469462899829</v>
       </c>
       <c r="J2">
-        <v>1.040322781801935</v>
+        <v>1.054447620007442</v>
       </c>
       <c r="K2">
-        <v>1.059754326356648</v>
+        <v>1.064470937900029</v>
       </c>
       <c r="L2">
-        <v>1.04460179448717</v>
+        <v>1.059911778567524</v>
       </c>
       <c r="M2">
-        <v>1.058040532807799</v>
+        <v>1.071975427226106</v>
       </c>
       <c r="N2">
-        <v>1.016818792726775</v>
+        <v>1.021921283315917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023673183658183</v>
+        <v>1.05046414916293</v>
       </c>
       <c r="D3">
-        <v>1.052457027034201</v>
+        <v>1.062505536579119</v>
       </c>
       <c r="E3">
-        <v>1.037698981681283</v>
+        <v>1.058092608499733</v>
       </c>
       <c r="F3">
-        <v>1.051446198362168</v>
+        <v>1.07021964316242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056111779235847</v>
+        <v>1.047210371893458</v>
       </c>
       <c r="J3">
-        <v>1.04353865753124</v>
+        <v>1.055151501872561</v>
       </c>
       <c r="K3">
-        <v>1.062459981364276</v>
+        <v>1.065043581242572</v>
       </c>
       <c r="L3">
-        <v>1.047871191542691</v>
+        <v>1.060641819463084</v>
       </c>
       <c r="M3">
-        <v>1.061460558763799</v>
+        <v>1.072738406496183</v>
       </c>
       <c r="N3">
-        <v>1.017929593281137</v>
+        <v>1.022160700224695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026831859668411</v>
+        <v>1.051147288391048</v>
       </c>
       <c r="D4">
-        <v>1.054690442818736</v>
+        <v>1.062996140510159</v>
       </c>
       <c r="E4">
-        <v>1.040306978129067</v>
+        <v>1.058686337480131</v>
       </c>
       <c r="F4">
-        <v>1.054141306711158</v>
+        <v>1.070833229520407</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057059511662371</v>
+        <v>1.047380233274471</v>
       </c>
       <c r="J4">
-        <v>1.045573245793638</v>
+        <v>1.055606764012561</v>
       </c>
       <c r="K4">
-        <v>1.06417074122328</v>
+        <v>1.065413698581937</v>
       </c>
       <c r="L4">
-        <v>1.049942104939895</v>
+        <v>1.061114252852189</v>
       </c>
       <c r="M4">
-        <v>1.063627421263192</v>
+        <v>1.073232182853129</v>
       </c>
       <c r="N4">
-        <v>1.01863182672316</v>
+        <v>1.022315423943418</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028144170130355</v>
+        <v>1.051434575403526</v>
       </c>
       <c r="D5">
-        <v>1.055619131904931</v>
+        <v>1.063202447800588</v>
       </c>
       <c r="E5">
-        <v>1.041391869860764</v>
+        <v>1.058936103276986</v>
       </c>
       <c r="F5">
-        <v>1.055262489538989</v>
+        <v>1.071091349382238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057451179653051</v>
+        <v>1.047451399067704</v>
       </c>
       <c r="J5">
-        <v>1.046417874232089</v>
+        <v>1.055798108630453</v>
       </c>
       <c r="K5">
-        <v>1.064880660770429</v>
+        <v>1.065569194262764</v>
       </c>
       <c r="L5">
-        <v>1.050802398712818</v>
+        <v>1.061312874688046</v>
       </c>
       <c r="M5">
-        <v>1.06452769356839</v>
+        <v>1.073439784213006</v>
       </c>
       <c r="N5">
-        <v>1.018923212312441</v>
+        <v>1.02238042281606</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02836361557023</v>
+        <v>1.051482817736634</v>
       </c>
       <c r="D6">
-        <v>1.055774472090846</v>
+        <v>1.063237091034894</v>
       </c>
       <c r="E6">
-        <v>1.041573365098707</v>
+        <v>1.058978049535441</v>
       </c>
       <c r="F6">
-        <v>1.055450058950373</v>
+        <v>1.071134698674227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057516551188834</v>
+        <v>1.047463333801878</v>
       </c>
       <c r="J6">
-        <v>1.046559073320681</v>
+        <v>1.055830233427535</v>
       </c>
       <c r="K6">
-        <v>1.064999323058035</v>
+        <v>1.065595296687436</v>
       </c>
       <c r="L6">
-        <v>1.050946250890694</v>
+        <v>1.061346224784179</v>
       </c>
       <c r="M6">
-        <v>1.064678237438748</v>
+        <v>1.07347464241321</v>
       </c>
       <c r="N6">
-        <v>1.018971915921175</v>
+        <v>1.022391333649569</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026849455316337</v>
+        <v>1.051151126760102</v>
       </c>
       <c r="D7">
-        <v>1.054702891799138</v>
+        <v>1.062998896974177</v>
       </c>
       <c r="E7">
-        <v>1.040321519178182</v>
+        <v>1.058689674226953</v>
       </c>
       <c r="F7">
-        <v>1.054156333977108</v>
+        <v>1.070836677871157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057064771472962</v>
+        <v>1.047381185154253</v>
       </c>
       <c r="J7">
-        <v>1.045584573374724</v>
+        <v>1.055609320956365</v>
       </c>
       <c r="K7">
-        <v>1.064180263311972</v>
+        <v>1.065415776723261</v>
       </c>
       <c r="L7">
-        <v>1.04995364030692</v>
+        <v>1.061116906805137</v>
       </c>
       <c r="M7">
-        <v>1.06363949222731</v>
+        <v>1.07323495676384</v>
       </c>
       <c r="N7">
-        <v>1.018635735134883</v>
+        <v>1.022316292646489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020386498944575</v>
+        <v>1.049765522034182</v>
       </c>
       <c r="D8">
-        <v>1.050136055323771</v>
+        <v>1.062003774924669</v>
       </c>
       <c r="E8">
-        <v>1.034990179409589</v>
+        <v>1.057485690901674</v>
       </c>
       <c r="F8">
-        <v>1.048647127282866</v>
+        <v>1.069592429438406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055118563458922</v>
+        <v>1.047035748096836</v>
       </c>
       <c r="J8">
-        <v>1.041419418361238</v>
+        <v>1.054685540536524</v>
       </c>
       <c r="K8">
-        <v>1.060677170976244</v>
+        <v>1.064664552120447</v>
       </c>
       <c r="L8">
-        <v>1.045716161268622</v>
+        <v>1.060158488935134</v>
       </c>
       <c r="M8">
-        <v>1.059206122589013</v>
+        <v>1.072233263042069</v>
       </c>
       <c r="N8">
-        <v>1.017197691936417</v>
+        <v>1.022002235590374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008449695012457</v>
+        <v>1.047326978103081</v>
       </c>
       <c r="D9">
-        <v>1.041733972128928</v>
+        <v>1.060252166324506</v>
       </c>
       <c r="E9">
-        <v>1.025193230619758</v>
+        <v>1.055369371986689</v>
       </c>
       <c r="F9">
-        <v>1.038525819546962</v>
+        <v>1.067405361319272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051458431654185</v>
+        <v>1.046419270145882</v>
       </c>
       <c r="J9">
-        <v>1.033707561046544</v>
+        <v>1.053056240427605</v>
       </c>
       <c r="K9">
-        <v>1.054184382040591</v>
+        <v>1.063337608389703</v>
       </c>
       <c r="L9">
-        <v>1.037890373664931</v>
+        <v>1.058470032563073</v>
       </c>
       <c r="M9">
-        <v>1.051023304160973</v>
+        <v>1.07046878292002</v>
       </c>
       <c r="N9">
-        <v>1.01453117882484</v>
+        <v>1.021447345887628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000078998836387</v>
+        <v>1.045703358812151</v>
       </c>
       <c r="D10">
-        <v>1.035869875105735</v>
+        <v>1.059085787849819</v>
       </c>
       <c r="E10">
-        <v>1.018360794926904</v>
+        <v>1.053962075484328</v>
       </c>
       <c r="F10">
-        <v>1.031469509539695</v>
+        <v>1.06595104337968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048850329331492</v>
+        <v>1.046003081047127</v>
       </c>
       <c r="J10">
-        <v>1.028289482793029</v>
+        <v>1.051969075432343</v>
       </c>
       <c r="K10">
-        <v>1.049620343731883</v>
+        <v>1.062450881852459</v>
       </c>
       <c r="L10">
-        <v>1.032406268358502</v>
+        <v>1.057344701774134</v>
       </c>
       <c r="M10">
-        <v>1.045292904726677</v>
+        <v>1.069292936142362</v>
       </c>
       <c r="N10">
-        <v>1.012655585066186</v>
+        <v>1.021076440236779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9963456715433886</v>
+        <v>1.045000808341842</v>
       </c>
       <c r="D11">
-        <v>1.033262474870775</v>
+        <v>1.058581069685001</v>
       </c>
       <c r="E11">
-        <v>1.01532342022786</v>
+        <v>1.053353560549833</v>
       </c>
       <c r="F11">
-        <v>1.028333323222505</v>
+        <v>1.065322203709399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047677991649948</v>
+        <v>1.045821636891893</v>
       </c>
       <c r="J11">
-        <v>1.025871269042383</v>
+        <v>1.051498098132819</v>
       </c>
       <c r="K11">
-        <v>1.047583237089445</v>
+        <v>1.062066431680166</v>
       </c>
       <c r="L11">
-        <v>1.02996203157137</v>
+        <v>1.056857501661216</v>
       </c>
       <c r="M11">
-        <v>1.042739989822003</v>
+        <v>1.06878390352643</v>
       </c>
       <c r="N11">
-        <v>1.011818052699967</v>
+        <v>1.020915605085531</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9949416047047124</v>
+        <v>1.04473992310823</v>
       </c>
       <c r="D12">
-        <v>1.032283181592781</v>
+        <v>1.058393645757991</v>
       </c>
       <c r="E12">
-        <v>1.01418266598577</v>
+        <v>1.053127660042138</v>
       </c>
       <c r="F12">
-        <v>1.027155579638494</v>
+        <v>1.065088759220292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04723577964159</v>
+        <v>1.045754055759768</v>
       </c>
       <c r="J12">
-        <v>1.024961598544752</v>
+        <v>1.05132312240649</v>
       </c>
       <c r="K12">
-        <v>1.04681696439827</v>
+        <v>1.061923556626085</v>
       </c>
       <c r="L12">
-        <v>1.029043100970259</v>
+        <v>1.05667654576665</v>
       </c>
       <c r="M12">
-        <v>1.041780380482707</v>
+        <v>1.068594844428948</v>
       </c>
       <c r="N12">
-        <v>1.01150294207027</v>
+        <v>1.020855829357526</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.995243583566648</v>
+        <v>1.044795880558686</v>
       </c>
       <c r="D13">
-        <v>1.032493740658599</v>
+        <v>1.058433846507145</v>
       </c>
       <c r="E13">
-        <v>1.014427940596685</v>
+        <v>1.053176110616498</v>
       </c>
       <c r="F13">
-        <v>1.027408801622757</v>
+        <v>1.065138827751712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047330946152127</v>
+        <v>1.045768560494503</v>
       </c>
       <c r="J13">
-        <v>1.025157253666288</v>
+        <v>1.051360656815922</v>
       </c>
       <c r="K13">
-        <v>1.046981774676051</v>
+        <v>1.061954207108233</v>
       </c>
       <c r="L13">
-        <v>1.029240723693753</v>
+        <v>1.056715360871724</v>
       </c>
       <c r="M13">
-        <v>1.041986743090674</v>
+        <v>1.068635397408104</v>
       </c>
       <c r="N13">
-        <v>1.011570719374103</v>
+        <v>1.020868653006424</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9962299708036749</v>
+        <v>1.044979241991504</v>
       </c>
       <c r="D14">
-        <v>1.033181749537492</v>
+        <v>1.058565576120704</v>
       </c>
       <c r="E14">
-        <v>1.015229385047381</v>
+        <v>1.053334884906709</v>
       </c>
       <c r="F14">
-        <v>1.028236236360135</v>
+        <v>1.065302904364771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047641577800904</v>
+        <v>1.045816054380219</v>
       </c>
       <c r="J14">
-        <v>1.025796312352567</v>
+        <v>1.051483635271503</v>
       </c>
       <c r="K14">
-        <v>1.047520095370812</v>
+        <v>1.062054623071457</v>
       </c>
       <c r="L14">
-        <v>1.029886301031196</v>
+        <v>1.056842543544052</v>
       </c>
       <c r="M14">
-        <v>1.042660903138399</v>
+        <v>1.068768275465287</v>
       </c>
       <c r="N14">
-        <v>1.011792088645012</v>
+        <v>1.020910664705357</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9968353871291182</v>
+        <v>1.045092226735969</v>
       </c>
       <c r="D15">
-        <v>1.033604208054853</v>
+        <v>1.058646745856607</v>
       </c>
       <c r="E15">
-        <v>1.015721498623403</v>
+        <v>1.053432728108283</v>
       </c>
       <c r="F15">
-        <v>1.028744325325514</v>
+        <v>1.06540401523957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047832064210003</v>
+        <v>1.045845292466842</v>
       </c>
       <c r="J15">
-        <v>1.026188523158224</v>
+        <v>1.051559401892288</v>
       </c>
       <c r="K15">
-        <v>1.047850486055388</v>
+        <v>1.062116482990452</v>
       </c>
       <c r="L15">
-        <v>1.030282582636039</v>
+        <v>1.056920906582638</v>
       </c>
       <c r="M15">
-        <v>1.043074754135462</v>
+        <v>1.068850148466187</v>
       </c>
       <c r="N15">
-        <v>1.011927943465233</v>
+        <v>1.020936544949796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000324392163193</v>
+        <v>1.045749995047472</v>
       </c>
       <c r="D16">
-        <v>1.036041437285597</v>
+        <v>1.059119291406925</v>
       </c>
       <c r="E16">
-        <v>1.018560656011339</v>
+        <v>1.05400247866928</v>
       </c>
       <c r="F16">
-        <v>1.031675888544246</v>
+        <v>1.06599279621811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048927202910545</v>
+        <v>1.046015096979283</v>
       </c>
       <c r="J16">
-        <v>1.028448401484137</v>
+        <v>1.052000327883333</v>
       </c>
       <c r="K16">
-        <v>1.049754219381571</v>
+        <v>1.062476386246713</v>
       </c>
       <c r="L16">
-        <v>1.032566969888644</v>
+        <v>1.057377037281336</v>
       </c>
       <c r="M16">
-        <v>1.045460775584387</v>
+        <v>1.069326721483965</v>
       </c>
       <c r="N16">
-        <v>1.012710617740696</v>
+        <v>1.021087109499571</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002483150455217</v>
+        <v>1.046162726266205</v>
       </c>
       <c r="D17">
-        <v>1.037551615482485</v>
+        <v>1.059415796237875</v>
       </c>
       <c r="E17">
-        <v>1.020319995629923</v>
+        <v>1.0543600972556</v>
       </c>
       <c r="F17">
-        <v>1.033492686993907</v>
+        <v>1.066362361783706</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049602439768235</v>
+        <v>1.046121281380155</v>
       </c>
       <c r="J17">
-        <v>1.029846238162181</v>
+        <v>1.052276848446794</v>
       </c>
       <c r="K17">
-        <v>1.050931776646854</v>
+        <v>1.062702012918895</v>
       </c>
       <c r="L17">
-        <v>1.033980881387448</v>
+        <v>1.057663176645235</v>
       </c>
       <c r="M17">
-        <v>1.046937891697119</v>
+        <v>1.069625694934398</v>
       </c>
       <c r="N17">
-        <v>1.013194635307796</v>
+        <v>1.02118149311141</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003731895517884</v>
+        <v>1.046403512425199</v>
       </c>
       <c r="D18">
-        <v>1.038425934383041</v>
+        <v>1.059588774393253</v>
       </c>
       <c r="E18">
-        <v>1.021338626359334</v>
+        <v>1.05456877244826</v>
       </c>
       <c r="F18">
-        <v>1.034544652139027</v>
+        <v>1.066578008897312</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049992164749586</v>
+        <v>1.046183098097776</v>
       </c>
       <c r="J18">
-        <v>1.030654653935968</v>
+        <v>1.052438116216753</v>
       </c>
       <c r="K18">
-        <v>1.051612787640695</v>
+        <v>1.062833569645335</v>
       </c>
       <c r="L18">
-        <v>1.034798919543937</v>
+        <v>1.057830084145725</v>
       </c>
       <c r="M18">
-        <v>1.047792600441053</v>
+        <v>1.069800092309882</v>
       </c>
       <c r="N18">
-        <v>1.013474519251238</v>
+        <v>1.02123652321339</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004155946743747</v>
+        <v>1.046485622256758</v>
       </c>
       <c r="D19">
-        <v>1.03872296062629</v>
+        <v>1.059647760852644</v>
       </c>
       <c r="E19">
-        <v>1.021684690447032</v>
+        <v>1.054639939236129</v>
       </c>
       <c r="F19">
-        <v>1.034902051964653</v>
+        <v>1.066651553510881</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05012435900718</v>
+        <v>1.04620415583252</v>
       </c>
       <c r="J19">
-        <v>1.03092914673871</v>
+        <v>1.052493100615088</v>
       </c>
       <c r="K19">
-        <v>1.051844017918642</v>
+        <v>1.062878419011161</v>
       </c>
       <c r="L19">
-        <v>1.035076734507453</v>
+        <v>1.057886996502629</v>
       </c>
       <c r="M19">
-        <v>1.048082886124854</v>
+        <v>1.069859559188929</v>
       </c>
       <c r="N19">
-        <v>1.01356954518977</v>
+        <v>1.021255283272537</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002252621131584</v>
+        <v>1.046118439248212</v>
       </c>
       <c r="D20">
-        <v>1.037390268164333</v>
+        <v>1.059383980767791</v>
       </c>
       <c r="E20">
-        <v>1.020132022144761</v>
+        <v>1.054321719645234</v>
       </c>
       <c r="F20">
-        <v>1.033298567410812</v>
+        <v>1.066322702017641</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049530422390288</v>
+        <v>1.046109901089355</v>
       </c>
       <c r="J20">
-        <v>1.029696983333133</v>
+        <v>1.052247182679398</v>
       </c>
       <c r="K20">
-        <v>1.050806042983138</v>
+        <v>1.062677810219483</v>
       </c>
       <c r="L20">
-        <v>1.033829876274955</v>
+        <v>1.057632475845351</v>
       </c>
       <c r="M20">
-        <v>1.046780125600395</v>
+        <v>1.069593616746737</v>
       </c>
       <c r="N20">
-        <v>1.013142958094353</v>
+        <v>1.021171368943955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9959399915401362</v>
+        <v>1.044925244595917</v>
       </c>
       <c r="D21">
-        <v>1.032979450435841</v>
+        <v>1.058526783619788</v>
       </c>
       <c r="E21">
-        <v>1.014993731511599</v>
+        <v>1.053288126267459</v>
       </c>
       <c r="F21">
-        <v>1.027992937275234</v>
+        <v>1.065254584169782</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04755029340501</v>
+        <v>1.045802073710433</v>
       </c>
       <c r="J21">
-        <v>1.025608446282886</v>
+        <v>1.051447422110793</v>
       </c>
       <c r="K21">
-        <v>1.0473618422207</v>
+        <v>1.062025055086275</v>
       </c>
       <c r="L21">
-        <v>1.029696503999799</v>
+        <v>1.056805091083356</v>
       </c>
       <c r="M21">
-        <v>1.042462697837428</v>
+        <v>1.068729145678809</v>
       </c>
       <c r="N21">
-        <v>1.01172701339182</v>
+        <v>1.020898294254528</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9918700954791324</v>
+        <v>1.044175459843427</v>
       </c>
       <c r="D22">
-        <v>1.0301434768557</v>
+        <v>1.057988124615279</v>
       </c>
       <c r="E22">
-        <v>1.011690165159957</v>
+        <v>1.052639012015254</v>
       </c>
       <c r="F22">
-        <v>1.024582499141009</v>
+        <v>1.064583795081069</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04626607295844</v>
+        <v>1.045607462001577</v>
       </c>
       <c r="J22">
-        <v>1.022971312457372</v>
+        <v>1.050944385627664</v>
       </c>
       <c r="K22">
-        <v>1.045140538172759</v>
+        <v>1.061614219211086</v>
       </c>
       <c r="L22">
-        <v>1.027033541147674</v>
+        <v>1.056284950693815</v>
       </c>
       <c r="M22">
-        <v>1.039682210787966</v>
+        <v>1.068185724538745</v>
       </c>
       <c r="N22">
-        <v>1.010813419948949</v>
+        <v>1.020726402502006</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9940375437305562</v>
+        <v>1.044572894705162</v>
       </c>
       <c r="D23">
-        <v>1.0316530161155</v>
+        <v>1.058273649634708</v>
       </c>
       <c r="E23">
-        <v>1.013448602826135</v>
+        <v>1.052983048704773</v>
       </c>
       <c r="F23">
-        <v>1.02639775040353</v>
+        <v>1.064939318924023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046950684632228</v>
+        <v>1.045710730513717</v>
       </c>
       <c r="J23">
-        <v>1.024375823120227</v>
+        <v>1.051211073153672</v>
       </c>
       <c r="K23">
-        <v>1.046323544689272</v>
+        <v>1.061832050914243</v>
       </c>
       <c r="L23">
-        <v>1.028451513166842</v>
+        <v>1.056560680200709</v>
       </c>
       <c r="M23">
-        <v>1.041162657216802</v>
+        <v>1.068473792061689</v>
       </c>
       <c r="N23">
-        <v>1.011300015460325</v>
+        <v>1.020817544339134</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002356819543873</v>
+        <v>1.046138450499927</v>
       </c>
       <c r="D24">
-        <v>1.037463194251291</v>
+        <v>1.059398356710752</v>
       </c>
       <c r="E24">
-        <v>1.020216982591293</v>
+        <v>1.05433906058108</v>
       </c>
       <c r="F24">
-        <v>1.033386305571466</v>
+        <v>1.066340622293819</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049562976682716</v>
+        <v>1.046115043720131</v>
       </c>
       <c r="J24">
-        <v>1.029764446502908</v>
+        <v>1.052260587430678</v>
       </c>
       <c r="K24">
-        <v>1.050862874622102</v>
+        <v>1.062688746524345</v>
       </c>
       <c r="L24">
-        <v>1.033898129563182</v>
+        <v>1.057646348192918</v>
       </c>
       <c r="M24">
-        <v>1.046851434490465</v>
+        <v>1.069608111464311</v>
       </c>
       <c r="N24">
-        <v>1.01316631631397</v>
+        <v>1.021175943688231</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011604976556028</v>
+        <v>1.047957035143124</v>
       </c>
       <c r="D25">
-        <v>1.04395054460146</v>
+        <v>1.060704764243319</v>
       </c>
       <c r="E25">
-        <v>1.02777668864381</v>
+        <v>1.055915863375341</v>
       </c>
       <c r="F25">
-        <v>1.041194457242251</v>
+        <v>1.067970118166731</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052433275249327</v>
+        <v>1.04657956335664</v>
       </c>
       <c r="J25">
-        <v>1.03574800072622</v>
+        <v>1.053477625898942</v>
       </c>
       <c r="K25">
-        <v>1.055902852470601</v>
+        <v>1.063681028302164</v>
       </c>
       <c r="L25">
-        <v>1.03995858389666</v>
+        <v>1.058906487791622</v>
       </c>
       <c r="M25">
-        <v>1.053185250983506</v>
+        <v>1.070924863440945</v>
       </c>
       <c r="N25">
-        <v>1.015237110149296</v>
+        <v>1.021590971979206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049409018489615</v>
+        <v>1.018686982659353</v>
       </c>
       <c r="D2">
-        <v>1.061747717870855</v>
+        <v>1.048937126351092</v>
       </c>
       <c r="E2">
-        <v>1.057176091053682</v>
+        <v>1.033591415936117</v>
       </c>
       <c r="F2">
-        <v>1.069272477184303</v>
+        <v>1.047201841919775</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0469462899829</v>
+        <v>1.05460232041567</v>
       </c>
       <c r="J2">
-        <v>1.054447620007442</v>
+        <v>1.040322781801935</v>
       </c>
       <c r="K2">
-        <v>1.064470937900029</v>
+        <v>1.059754326356648</v>
       </c>
       <c r="L2">
-        <v>1.059911778567524</v>
+        <v>1.04460179448717</v>
       </c>
       <c r="M2">
-        <v>1.071975427226106</v>
+        <v>1.058040532807799</v>
       </c>
       <c r="N2">
-        <v>1.021921283315917</v>
+        <v>1.016818792726775</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05046414916293</v>
+        <v>1.023673183658184</v>
       </c>
       <c r="D3">
-        <v>1.062505536579119</v>
+        <v>1.052457027034201</v>
       </c>
       <c r="E3">
-        <v>1.058092608499733</v>
+        <v>1.037698981681283</v>
       </c>
       <c r="F3">
-        <v>1.07021964316242</v>
+        <v>1.051446198362168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047210371893458</v>
+        <v>1.056111779235847</v>
       </c>
       <c r="J3">
-        <v>1.055151501872561</v>
+        <v>1.043538657531241</v>
       </c>
       <c r="K3">
-        <v>1.065043581242572</v>
+        <v>1.062459981364275</v>
       </c>
       <c r="L3">
-        <v>1.060641819463084</v>
+        <v>1.047871191542691</v>
       </c>
       <c r="M3">
-        <v>1.072738406496183</v>
+        <v>1.061460558763799</v>
       </c>
       <c r="N3">
-        <v>1.022160700224695</v>
+        <v>1.017929593281137</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051147288391048</v>
+        <v>1.02683185966841</v>
       </c>
       <c r="D4">
-        <v>1.062996140510159</v>
+        <v>1.054690442818736</v>
       </c>
       <c r="E4">
-        <v>1.058686337480131</v>
+        <v>1.040306978129066</v>
       </c>
       <c r="F4">
-        <v>1.070833229520407</v>
+        <v>1.054141306711158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047380233274471</v>
+        <v>1.057059511662371</v>
       </c>
       <c r="J4">
-        <v>1.055606764012561</v>
+        <v>1.045573245793638</v>
       </c>
       <c r="K4">
-        <v>1.065413698581937</v>
+        <v>1.064170741223281</v>
       </c>
       <c r="L4">
-        <v>1.061114252852189</v>
+        <v>1.049942104939895</v>
       </c>
       <c r="M4">
-        <v>1.073232182853129</v>
+        <v>1.063627421263192</v>
       </c>
       <c r="N4">
-        <v>1.022315423943418</v>
+        <v>1.01863182672316</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051434575403526</v>
+        <v>1.028144170130355</v>
       </c>
       <c r="D5">
-        <v>1.063202447800588</v>
+        <v>1.055619131904931</v>
       </c>
       <c r="E5">
-        <v>1.058936103276986</v>
+        <v>1.041391869860764</v>
       </c>
       <c r="F5">
-        <v>1.071091349382238</v>
+        <v>1.05526248953899</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047451399067704</v>
+        <v>1.057451179653051</v>
       </c>
       <c r="J5">
-        <v>1.055798108630453</v>
+        <v>1.04641787423209</v>
       </c>
       <c r="K5">
-        <v>1.065569194262764</v>
+        <v>1.064880660770429</v>
       </c>
       <c r="L5">
-        <v>1.061312874688046</v>
+        <v>1.050802398712818</v>
       </c>
       <c r="M5">
-        <v>1.073439784213006</v>
+        <v>1.064527693568391</v>
       </c>
       <c r="N5">
-        <v>1.02238042281606</v>
+        <v>1.018923212312441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051482817736634</v>
+        <v>1.02836361557023</v>
       </c>
       <c r="D6">
-        <v>1.063237091034894</v>
+        <v>1.055774472090846</v>
       </c>
       <c r="E6">
-        <v>1.058978049535441</v>
+        <v>1.041573365098706</v>
       </c>
       <c r="F6">
-        <v>1.071134698674227</v>
+        <v>1.055450058950373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047463333801878</v>
+        <v>1.057516551188833</v>
       </c>
       <c r="J6">
-        <v>1.055830233427535</v>
+        <v>1.046559073320681</v>
       </c>
       <c r="K6">
-        <v>1.065595296687436</v>
+        <v>1.064999323058034</v>
       </c>
       <c r="L6">
-        <v>1.061346224784179</v>
+        <v>1.050946250890694</v>
       </c>
       <c r="M6">
-        <v>1.07347464241321</v>
+        <v>1.064678237438747</v>
       </c>
       <c r="N6">
-        <v>1.022391333649569</v>
+        <v>1.018971915921175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051151126760102</v>
+        <v>1.026849455316337</v>
       </c>
       <c r="D7">
-        <v>1.062998896974177</v>
+        <v>1.054702891799138</v>
       </c>
       <c r="E7">
-        <v>1.058689674226953</v>
+        <v>1.040321519178182</v>
       </c>
       <c r="F7">
-        <v>1.070836677871157</v>
+        <v>1.054156333977108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047381185154253</v>
+        <v>1.057064771472962</v>
       </c>
       <c r="J7">
-        <v>1.055609320956365</v>
+        <v>1.045584573374724</v>
       </c>
       <c r="K7">
-        <v>1.065415776723261</v>
+        <v>1.064180263311973</v>
       </c>
       <c r="L7">
-        <v>1.061116906805137</v>
+        <v>1.04995364030692</v>
       </c>
       <c r="M7">
-        <v>1.07323495676384</v>
+        <v>1.06363949222731</v>
       </c>
       <c r="N7">
-        <v>1.022316292646489</v>
+        <v>1.018635735134883</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049765522034182</v>
+        <v>1.020386498944574</v>
       </c>
       <c r="D8">
-        <v>1.062003774924669</v>
+        <v>1.05013605532377</v>
       </c>
       <c r="E8">
-        <v>1.057485690901674</v>
+        <v>1.034990179409589</v>
       </c>
       <c r="F8">
-        <v>1.069592429438406</v>
+        <v>1.048647127282865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047035748096836</v>
+        <v>1.055118563458921</v>
       </c>
       <c r="J8">
-        <v>1.054685540536524</v>
+        <v>1.041419418361237</v>
       </c>
       <c r="K8">
-        <v>1.064664552120447</v>
+        <v>1.060677170976243</v>
       </c>
       <c r="L8">
-        <v>1.060158488935134</v>
+        <v>1.045716161268621</v>
       </c>
       <c r="M8">
-        <v>1.072233263042069</v>
+        <v>1.059206122589013</v>
       </c>
       <c r="N8">
-        <v>1.022002235590374</v>
+        <v>1.017197691936417</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047326978103081</v>
+        <v>1.008449695012458</v>
       </c>
       <c r="D9">
-        <v>1.060252166324506</v>
+        <v>1.041733972128928</v>
       </c>
       <c r="E9">
-        <v>1.055369371986689</v>
+        <v>1.025193230619758</v>
       </c>
       <c r="F9">
-        <v>1.067405361319272</v>
+        <v>1.038525819546962</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046419270145882</v>
+        <v>1.051458431654185</v>
       </c>
       <c r="J9">
-        <v>1.053056240427605</v>
+        <v>1.033707561046544</v>
       </c>
       <c r="K9">
-        <v>1.063337608389703</v>
+        <v>1.054184382040591</v>
       </c>
       <c r="L9">
-        <v>1.058470032563073</v>
+        <v>1.037890373664932</v>
       </c>
       <c r="M9">
-        <v>1.07046878292002</v>
+        <v>1.051023304160974</v>
       </c>
       <c r="N9">
-        <v>1.021447345887628</v>
+        <v>1.01453117882484</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045703358812151</v>
+        <v>1.000078998836387</v>
       </c>
       <c r="D10">
-        <v>1.059085787849819</v>
+        <v>1.035869875105736</v>
       </c>
       <c r="E10">
-        <v>1.053962075484328</v>
+        <v>1.018360794926904</v>
       </c>
       <c r="F10">
-        <v>1.06595104337968</v>
+        <v>1.031469509539696</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046003081047127</v>
+        <v>1.048850329331493</v>
       </c>
       <c r="J10">
-        <v>1.051969075432343</v>
+        <v>1.02828948279303</v>
       </c>
       <c r="K10">
-        <v>1.062450881852459</v>
+        <v>1.049620343731884</v>
       </c>
       <c r="L10">
-        <v>1.057344701774134</v>
+        <v>1.032406268358502</v>
       </c>
       <c r="M10">
-        <v>1.069292936142362</v>
+        <v>1.045292904726678</v>
       </c>
       <c r="N10">
-        <v>1.021076440236779</v>
+        <v>1.012655585066186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045000808341842</v>
+        <v>0.9963456715433879</v>
       </c>
       <c r="D11">
-        <v>1.058581069685001</v>
+        <v>1.033262474870774</v>
       </c>
       <c r="E11">
-        <v>1.053353560549833</v>
+        <v>1.01532342022786</v>
       </c>
       <c r="F11">
-        <v>1.065322203709399</v>
+        <v>1.028333323222504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045821636891893</v>
+        <v>1.047677991649948</v>
       </c>
       <c r="J11">
-        <v>1.051498098132819</v>
+        <v>1.025871269042383</v>
       </c>
       <c r="K11">
-        <v>1.062066431680166</v>
+        <v>1.047583237089444</v>
       </c>
       <c r="L11">
-        <v>1.056857501661216</v>
+        <v>1.02996203157137</v>
       </c>
       <c r="M11">
-        <v>1.06878390352643</v>
+        <v>1.042739989822002</v>
       </c>
       <c r="N11">
-        <v>1.020915605085531</v>
+        <v>1.011818052699966</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04473992310823</v>
+        <v>0.9949416047047114</v>
       </c>
       <c r="D12">
-        <v>1.058393645757991</v>
+        <v>1.03228318159278</v>
       </c>
       <c r="E12">
-        <v>1.053127660042138</v>
+        <v>1.014182665985769</v>
       </c>
       <c r="F12">
-        <v>1.065088759220292</v>
+        <v>1.027155579638493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045754055759768</v>
+        <v>1.047235779641589</v>
       </c>
       <c r="J12">
-        <v>1.05132312240649</v>
+        <v>1.024961598544751</v>
       </c>
       <c r="K12">
-        <v>1.061923556626085</v>
+        <v>1.046816964398269</v>
       </c>
       <c r="L12">
-        <v>1.05667654576665</v>
+        <v>1.029043100970258</v>
       </c>
       <c r="M12">
-        <v>1.068594844428948</v>
+        <v>1.041780380482706</v>
       </c>
       <c r="N12">
-        <v>1.020855829357526</v>
+        <v>1.01150294207027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044795880558686</v>
+        <v>0.9952435835666475</v>
       </c>
       <c r="D13">
-        <v>1.058433846507145</v>
+        <v>1.032493740658598</v>
       </c>
       <c r="E13">
-        <v>1.053176110616498</v>
+        <v>1.014427940596684</v>
       </c>
       <c r="F13">
-        <v>1.065138827751712</v>
+        <v>1.027408801622756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045768560494503</v>
+        <v>1.047330946152127</v>
       </c>
       <c r="J13">
-        <v>1.051360656815922</v>
+        <v>1.025157253666287</v>
       </c>
       <c r="K13">
-        <v>1.061954207108233</v>
+        <v>1.04698177467605</v>
       </c>
       <c r="L13">
-        <v>1.056715360871724</v>
+        <v>1.029240723693752</v>
       </c>
       <c r="M13">
-        <v>1.068635397408104</v>
+        <v>1.041986743090673</v>
       </c>
       <c r="N13">
-        <v>1.020868653006424</v>
+        <v>1.011570719374103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044979241991504</v>
+        <v>0.996229970803675</v>
       </c>
       <c r="D14">
-        <v>1.058565576120704</v>
+        <v>1.033181749537492</v>
       </c>
       <c r="E14">
-        <v>1.053334884906709</v>
+        <v>1.015229385047381</v>
       </c>
       <c r="F14">
-        <v>1.065302904364771</v>
+        <v>1.028236236360136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045816054380219</v>
+        <v>1.047641577800905</v>
       </c>
       <c r="J14">
-        <v>1.051483635271503</v>
+        <v>1.025796312352568</v>
       </c>
       <c r="K14">
-        <v>1.062054623071457</v>
+        <v>1.047520095370812</v>
       </c>
       <c r="L14">
-        <v>1.056842543544052</v>
+        <v>1.029886301031196</v>
       </c>
       <c r="M14">
-        <v>1.068768275465287</v>
+        <v>1.0426609031384</v>
       </c>
       <c r="N14">
-        <v>1.020910664705357</v>
+        <v>1.011792088645012</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045092226735969</v>
+        <v>0.996835387129119</v>
       </c>
       <c r="D15">
-        <v>1.058646745856607</v>
+        <v>1.033604208054854</v>
       </c>
       <c r="E15">
-        <v>1.053432728108283</v>
+        <v>1.015721498623404</v>
       </c>
       <c r="F15">
-        <v>1.06540401523957</v>
+        <v>1.028744325325514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045845292466842</v>
+        <v>1.047832064210004</v>
       </c>
       <c r="J15">
-        <v>1.051559401892288</v>
+        <v>1.026188523158224</v>
       </c>
       <c r="K15">
-        <v>1.062116482990452</v>
+        <v>1.047850486055389</v>
       </c>
       <c r="L15">
-        <v>1.056920906582638</v>
+        <v>1.03028258263604</v>
       </c>
       <c r="M15">
-        <v>1.068850148466187</v>
+        <v>1.043074754135463</v>
       </c>
       <c r="N15">
-        <v>1.020936544949796</v>
+        <v>1.011927943465233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045749995047472</v>
+        <v>1.000324392163193</v>
       </c>
       <c r="D16">
-        <v>1.059119291406925</v>
+        <v>1.036041437285596</v>
       </c>
       <c r="E16">
-        <v>1.05400247866928</v>
+        <v>1.018560656011339</v>
       </c>
       <c r="F16">
-        <v>1.06599279621811</v>
+        <v>1.031675888544246</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046015096979283</v>
+        <v>1.048927202910545</v>
       </c>
       <c r="J16">
-        <v>1.052000327883333</v>
+        <v>1.028448401484136</v>
       </c>
       <c r="K16">
-        <v>1.062476386246713</v>
+        <v>1.049754219381571</v>
       </c>
       <c r="L16">
-        <v>1.057377037281336</v>
+        <v>1.032566969888643</v>
       </c>
       <c r="M16">
-        <v>1.069326721483965</v>
+        <v>1.045460775584386</v>
       </c>
       <c r="N16">
-        <v>1.021087109499571</v>
+        <v>1.012710617740696</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046162726266205</v>
+        <v>1.002483150455217</v>
       </c>
       <c r="D17">
-        <v>1.059415796237875</v>
+        <v>1.037551615482485</v>
       </c>
       <c r="E17">
-        <v>1.0543600972556</v>
+        <v>1.020319995629922</v>
       </c>
       <c r="F17">
-        <v>1.066362361783706</v>
+        <v>1.033492686993907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046121281380155</v>
+        <v>1.049602439768234</v>
       </c>
       <c r="J17">
-        <v>1.052276848446794</v>
+        <v>1.029846238162181</v>
       </c>
       <c r="K17">
-        <v>1.062702012918895</v>
+        <v>1.050931776646854</v>
       </c>
       <c r="L17">
-        <v>1.057663176645235</v>
+        <v>1.033980881387447</v>
       </c>
       <c r="M17">
-        <v>1.069625694934398</v>
+        <v>1.046937891697118</v>
       </c>
       <c r="N17">
-        <v>1.02118149311141</v>
+        <v>1.013194635307795</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046403512425199</v>
+        <v>1.003731895517884</v>
       </c>
       <c r="D18">
-        <v>1.059588774393253</v>
+        <v>1.03842593438304</v>
       </c>
       <c r="E18">
-        <v>1.05456877244826</v>
+        <v>1.021338626359333</v>
       </c>
       <c r="F18">
-        <v>1.066578008897312</v>
+        <v>1.034544652139027</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046183098097776</v>
+        <v>1.049992164749586</v>
       </c>
       <c r="J18">
-        <v>1.052438116216753</v>
+        <v>1.030654653935967</v>
       </c>
       <c r="K18">
-        <v>1.062833569645335</v>
+        <v>1.051612787640695</v>
       </c>
       <c r="L18">
-        <v>1.057830084145725</v>
+        <v>1.034798919543936</v>
       </c>
       <c r="M18">
-        <v>1.069800092309882</v>
+        <v>1.047792600441053</v>
       </c>
       <c r="N18">
-        <v>1.02123652321339</v>
+        <v>1.013474519251238</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046485622256758</v>
+        <v>1.004155946743747</v>
       </c>
       <c r="D19">
-        <v>1.059647760852644</v>
+        <v>1.03872296062629</v>
       </c>
       <c r="E19">
-        <v>1.054639939236129</v>
+        <v>1.021684690447032</v>
       </c>
       <c r="F19">
-        <v>1.066651553510881</v>
+        <v>1.034902051964653</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04620415583252</v>
+        <v>1.05012435900718</v>
       </c>
       <c r="J19">
-        <v>1.052493100615088</v>
+        <v>1.03092914673871</v>
       </c>
       <c r="K19">
-        <v>1.062878419011161</v>
+        <v>1.051844017918643</v>
       </c>
       <c r="L19">
-        <v>1.057886996502629</v>
+        <v>1.035076734507453</v>
       </c>
       <c r="M19">
-        <v>1.069859559188929</v>
+        <v>1.048082886124855</v>
       </c>
       <c r="N19">
-        <v>1.021255283272537</v>
+        <v>1.01356954518977</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046118439248212</v>
+        <v>1.002252621131584</v>
       </c>
       <c r="D20">
-        <v>1.059383980767791</v>
+        <v>1.037390268164333</v>
       </c>
       <c r="E20">
-        <v>1.054321719645234</v>
+        <v>1.020132022144761</v>
       </c>
       <c r="F20">
-        <v>1.066322702017641</v>
+        <v>1.033298567410812</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046109901089355</v>
+        <v>1.049530422390288</v>
       </c>
       <c r="J20">
-        <v>1.052247182679398</v>
+        <v>1.029696983333133</v>
       </c>
       <c r="K20">
-        <v>1.062677810219483</v>
+        <v>1.050806042983137</v>
       </c>
       <c r="L20">
-        <v>1.057632475845351</v>
+        <v>1.033829876274954</v>
       </c>
       <c r="M20">
-        <v>1.069593616746737</v>
+        <v>1.046780125600395</v>
       </c>
       <c r="N20">
-        <v>1.021171368943955</v>
+        <v>1.013142958094353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044925244595917</v>
+        <v>0.995939991540137</v>
       </c>
       <c r="D21">
-        <v>1.058526783619788</v>
+        <v>1.032979450435842</v>
       </c>
       <c r="E21">
-        <v>1.053288126267459</v>
+        <v>1.014993731511599</v>
       </c>
       <c r="F21">
-        <v>1.065254584169782</v>
+        <v>1.027992937275234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045802073710433</v>
+        <v>1.04755029340501</v>
       </c>
       <c r="J21">
-        <v>1.051447422110793</v>
+        <v>1.025608446282887</v>
       </c>
       <c r="K21">
-        <v>1.062025055086275</v>
+        <v>1.047361842220701</v>
       </c>
       <c r="L21">
-        <v>1.056805091083356</v>
+        <v>1.0296965039998</v>
       </c>
       <c r="M21">
-        <v>1.068729145678809</v>
+        <v>1.042462697837429</v>
       </c>
       <c r="N21">
-        <v>1.020898294254528</v>
+        <v>1.01172701339182</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044175459843427</v>
+        <v>0.9918700954791323</v>
       </c>
       <c r="D22">
-        <v>1.057988124615279</v>
+        <v>1.0301434768557</v>
       </c>
       <c r="E22">
-        <v>1.052639012015254</v>
+        <v>1.011690165159957</v>
       </c>
       <c r="F22">
-        <v>1.064583795081069</v>
+        <v>1.024582499141008</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045607462001577</v>
+        <v>1.04626607295844</v>
       </c>
       <c r="J22">
-        <v>1.050944385627664</v>
+        <v>1.022971312457372</v>
       </c>
       <c r="K22">
-        <v>1.061614219211086</v>
+        <v>1.045140538172759</v>
       </c>
       <c r="L22">
-        <v>1.056284950693815</v>
+        <v>1.027033541147673</v>
       </c>
       <c r="M22">
-        <v>1.068185724538745</v>
+        <v>1.039682210787966</v>
       </c>
       <c r="N22">
-        <v>1.020726402502006</v>
+        <v>1.010813419948949</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044572894705162</v>
+        <v>0.9940375437305575</v>
       </c>
       <c r="D23">
-        <v>1.058273649634708</v>
+        <v>1.031653016115501</v>
       </c>
       <c r="E23">
-        <v>1.052983048704773</v>
+        <v>1.013448602826136</v>
       </c>
       <c r="F23">
-        <v>1.064939318924023</v>
+        <v>1.026397750403532</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045710730513717</v>
+        <v>1.046950684632228</v>
       </c>
       <c r="J23">
-        <v>1.051211073153672</v>
+        <v>1.024375823120228</v>
       </c>
       <c r="K23">
-        <v>1.061832050914243</v>
+        <v>1.046323544689273</v>
       </c>
       <c r="L23">
-        <v>1.056560680200709</v>
+        <v>1.028451513166843</v>
       </c>
       <c r="M23">
-        <v>1.068473792061689</v>
+        <v>1.041162657216804</v>
       </c>
       <c r="N23">
-        <v>1.020817544339134</v>
+        <v>1.011300015460325</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046138450499927</v>
+        <v>1.002356819543873</v>
       </c>
       <c r="D24">
-        <v>1.059398356710752</v>
+        <v>1.037463194251291</v>
       </c>
       <c r="E24">
-        <v>1.05433906058108</v>
+        <v>1.020216982591292</v>
       </c>
       <c r="F24">
-        <v>1.066340622293819</v>
+        <v>1.033386305571466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046115043720131</v>
+        <v>1.049562976682715</v>
       </c>
       <c r="J24">
-        <v>1.052260587430678</v>
+        <v>1.029764446502908</v>
       </c>
       <c r="K24">
-        <v>1.062688746524345</v>
+        <v>1.050862874622102</v>
       </c>
       <c r="L24">
-        <v>1.057646348192918</v>
+        <v>1.033898129563182</v>
       </c>
       <c r="M24">
-        <v>1.069608111464311</v>
+        <v>1.046851434490465</v>
       </c>
       <c r="N24">
-        <v>1.021175943688231</v>
+        <v>1.01316631631397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047957035143124</v>
+        <v>1.011604976556027</v>
       </c>
       <c r="D25">
-        <v>1.060704764243319</v>
+        <v>1.043950544601459</v>
       </c>
       <c r="E25">
-        <v>1.055915863375341</v>
+        <v>1.027776688643809</v>
       </c>
       <c r="F25">
-        <v>1.067970118166731</v>
+        <v>1.041194457242249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04657956335664</v>
+        <v>1.052433275249327</v>
       </c>
       <c r="J25">
-        <v>1.053477625898942</v>
+        <v>1.035748000726219</v>
       </c>
       <c r="K25">
-        <v>1.063681028302164</v>
+        <v>1.0559028524706</v>
       </c>
       <c r="L25">
-        <v>1.058906487791622</v>
+        <v>1.039958583896659</v>
       </c>
       <c r="M25">
-        <v>1.070924863440945</v>
+        <v>1.053185250983505</v>
       </c>
       <c r="N25">
-        <v>1.021590971979206</v>
+        <v>1.015237110149295</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018686982659353</v>
+        <v>0.978146894180881</v>
       </c>
       <c r="D2">
-        <v>1.048937126351092</v>
+        <v>1.038995333256226</v>
       </c>
       <c r="E2">
-        <v>1.033591415936117</v>
+        <v>0.9984080587471578</v>
       </c>
       <c r="F2">
-        <v>1.047201841919775</v>
+        <v>1.012952005873071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05460232041567</v>
+        <v>1.055031926986014</v>
       </c>
       <c r="J2">
-        <v>1.040322781801935</v>
+        <v>1.001001469865023</v>
       </c>
       <c r="K2">
-        <v>1.059754326356648</v>
+        <v>1.049936872476254</v>
       </c>
       <c r="L2">
-        <v>1.04460179448717</v>
+        <v>1.009889616484636</v>
       </c>
       <c r="M2">
-        <v>1.058040532807799</v>
+        <v>1.024233800195846</v>
       </c>
       <c r="N2">
-        <v>1.016818792726775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.002951840132671</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.027751702839871</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046379939488045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023673183658184</v>
+        <v>0.9852147656612718</v>
       </c>
       <c r="D3">
-        <v>1.052457027034201</v>
+        <v>1.04097907190624</v>
       </c>
       <c r="E3">
-        <v>1.037698981681283</v>
+        <v>1.004077744615188</v>
       </c>
       <c r="F3">
-        <v>1.051446198362168</v>
+        <v>1.018127609240778</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056111779235847</v>
+        <v>1.055897392575198</v>
       </c>
       <c r="J3">
-        <v>1.043538657531241</v>
+        <v>1.006116770043602</v>
       </c>
       <c r="K3">
-        <v>1.062459981364275</v>
+        <v>1.051113150911087</v>
       </c>
       <c r="L3">
-        <v>1.047871191542691</v>
+        <v>1.014658714473024</v>
       </c>
       <c r="M3">
-        <v>1.061460558763799</v>
+        <v>1.028533681200923</v>
       </c>
       <c r="N3">
-        <v>1.017929593281137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.004818607259298</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031154823589262</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047209013941832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02683185966841</v>
+        <v>0.9896526135825733</v>
       </c>
       <c r="D4">
-        <v>1.054690442818736</v>
+        <v>1.042228413703585</v>
       </c>
       <c r="E4">
-        <v>1.040306978129066</v>
+        <v>1.007642804125656</v>
       </c>
       <c r="F4">
-        <v>1.054141306711158</v>
+        <v>1.021379438944885</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057059511662371</v>
+        <v>1.05642189757228</v>
       </c>
       <c r="J4">
-        <v>1.045573245793638</v>
+        <v>1.009324761978927</v>
       </c>
       <c r="K4">
-        <v>1.064170741223281</v>
+        <v>1.051842554057238</v>
       </c>
       <c r="L4">
-        <v>1.049942104939895</v>
+        <v>1.01764985416626</v>
       </c>
       <c r="M4">
-        <v>1.063627421263192</v>
+        <v>1.031226502870477</v>
       </c>
       <c r="N4">
-        <v>1.01863182672316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005987076974194</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033286036249115</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04772563895668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028144170130355</v>
+        <v>0.9914860364589131</v>
       </c>
       <c r="D5">
-        <v>1.055619131904931</v>
+        <v>1.04274630489694</v>
       </c>
       <c r="E5">
-        <v>1.041391869860764</v>
+        <v>1.009115975272749</v>
       </c>
       <c r="F5">
-        <v>1.05526248953899</v>
+        <v>1.022719861469768</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057451179653051</v>
+        <v>1.056632575603101</v>
       </c>
       <c r="J5">
-        <v>1.04641787423209</v>
+        <v>1.010648699901307</v>
       </c>
       <c r="K5">
-        <v>1.064880660770429</v>
+        <v>1.052142434697517</v>
       </c>
       <c r="L5">
-        <v>1.050802398712818</v>
+        <v>1.018883737172191</v>
       </c>
       <c r="M5">
-        <v>1.064527693568391</v>
+        <v>1.032333672398563</v>
       </c>
       <c r="N5">
-        <v>1.018923212312441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.006469500274038</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034162295037198</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047944769349313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02836361557023</v>
+        <v>0.9917902310476511</v>
       </c>
       <c r="D6">
-        <v>1.055774472090846</v>
+        <v>1.04283357928719</v>
       </c>
       <c r="E6">
-        <v>1.041573365098706</v>
+        <v>1.009359511490456</v>
       </c>
       <c r="F6">
-        <v>1.055450058950373</v>
+        <v>1.022938190988887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057516551188833</v>
+        <v>1.056665627167888</v>
       </c>
       <c r="J6">
-        <v>1.046559073320681</v>
+        <v>1.010867822932721</v>
       </c>
       <c r="K6">
-        <v>1.064999323058034</v>
+        <v>1.052193129028449</v>
       </c>
       <c r="L6">
-        <v>1.050946250890694</v>
+        <v>1.019087235107189</v>
       </c>
       <c r="M6">
-        <v>1.064678237438747</v>
+        <v>1.032512994397262</v>
       </c>
       <c r="N6">
-        <v>1.018971915921175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006550241390466</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034304217624105</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047989265730498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026849455316337</v>
+        <v>0.9896719695036066</v>
       </c>
       <c r="D7">
-        <v>1.054702891799138</v>
+        <v>1.042236975821958</v>
       </c>
       <c r="E7">
-        <v>1.040321519178182</v>
+        <v>1.007655743356715</v>
       </c>
       <c r="F7">
-        <v>1.054156333977108</v>
+        <v>1.021382366425935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057064771472962</v>
+        <v>1.056419450247467</v>
       </c>
       <c r="J7">
-        <v>1.045584573374724</v>
+        <v>1.009337419686761</v>
       </c>
       <c r="K7">
-        <v>1.064180263311973</v>
+        <v>1.051848183321863</v>
       </c>
       <c r="L7">
-        <v>1.04995364030692</v>
+        <v>1.017659669428697</v>
       </c>
       <c r="M7">
-        <v>1.06363949222731</v>
+        <v>1.031226479624549</v>
       </c>
       <c r="N7">
-        <v>1.018635735134883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005994231162711</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033286017851335</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047749517484218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020386498944574</v>
+        <v>0.9805572803871249</v>
       </c>
       <c r="D8">
-        <v>1.05013605532377</v>
+        <v>1.039672722910322</v>
       </c>
       <c r="E8">
-        <v>1.034990179409589</v>
+        <v>1.000336899262934</v>
       </c>
       <c r="F8">
-        <v>1.048647127282865</v>
+        <v>1.014701321478433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055118563458921</v>
+        <v>1.055323642878905</v>
       </c>
       <c r="J8">
-        <v>1.041419418361237</v>
+        <v>1.002744910986608</v>
       </c>
       <c r="K8">
-        <v>1.060677170976243</v>
+        <v>1.050340835466582</v>
       </c>
       <c r="L8">
-        <v>1.045716161268621</v>
+        <v>1.011512308966937</v>
       </c>
       <c r="M8">
-        <v>1.059206122589013</v>
+        <v>1.025685769269818</v>
       </c>
       <c r="N8">
-        <v>1.017197691936417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.00359190528867</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028900858857932</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046688232889063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008449695012458</v>
+        <v>0.9633813411621557</v>
       </c>
       <c r="D9">
-        <v>1.041733972128928</v>
+        <v>1.03488350108026</v>
       </c>
       <c r="E9">
-        <v>1.025193230619758</v>
+        <v>0.9865981240443542</v>
       </c>
       <c r="F9">
-        <v>1.038525819546962</v>
+        <v>1.002159103024333</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051458431654185</v>
+        <v>1.053124064150831</v>
       </c>
       <c r="J9">
-        <v>1.033707561046544</v>
+        <v>0.9902969362193608</v>
       </c>
       <c r="K9">
-        <v>1.054184382040591</v>
+        <v>1.047434880863634</v>
       </c>
       <c r="L9">
-        <v>1.037890373664932</v>
+        <v>0.9999124452912423</v>
       </c>
       <c r="M9">
-        <v>1.051023304160974</v>
+        <v>1.015217247147448</v>
       </c>
       <c r="N9">
-        <v>1.01453117882484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9990342847079111</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.020615539092073</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044630436389459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000078998836387</v>
+        <v>0.9512375386249962</v>
       </c>
       <c r="D10">
-        <v>1.035869875105736</v>
+        <v>1.031499220981669</v>
       </c>
       <c r="E10">
-        <v>1.018360794926904</v>
+        <v>0.9769649635035659</v>
       </c>
       <c r="F10">
-        <v>1.031469509539696</v>
+        <v>0.9933971321247638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048850329331493</v>
+        <v>1.051482157007227</v>
       </c>
       <c r="J10">
-        <v>1.02828948279303</v>
+        <v>0.9815289341839767</v>
       </c>
       <c r="K10">
-        <v>1.049620343731884</v>
+        <v>1.04532212107807</v>
       </c>
       <c r="L10">
-        <v>1.032406268358502</v>
+        <v>0.9917629619812265</v>
       </c>
       <c r="M10">
-        <v>1.045292904726678</v>
+        <v>1.007886635629553</v>
       </c>
       <c r="N10">
-        <v>1.012655585066186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9958386752729488</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.014866615862735</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043153252890987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963456715433879</v>
+        <v>0.9473898035867034</v>
       </c>
       <c r="D11">
-        <v>1.033262474870774</v>
+        <v>1.030026403052715</v>
       </c>
       <c r="E11">
-        <v>1.01532342022786</v>
+        <v>0.9742374705832422</v>
       </c>
       <c r="F11">
-        <v>1.028333323222504</v>
+        <v>0.9912353904007115</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047677991649948</v>
+        <v>1.05094056772248</v>
       </c>
       <c r="J11">
-        <v>1.025871269042383</v>
+        <v>0.97912771194776</v>
       </c>
       <c r="K11">
-        <v>1.047583237089444</v>
+        <v>1.044403442898997</v>
       </c>
       <c r="L11">
-        <v>1.02996203157137</v>
+        <v>0.9896621524295151</v>
       </c>
       <c r="M11">
-        <v>1.042739989822002</v>
+        <v>1.006324509109175</v>
       </c>
       <c r="N11">
-        <v>1.011818052699966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9951712770615981</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.014079184636633</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042536228798445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9949416047047114</v>
+        <v>0.9465958570068258</v>
       </c>
       <c r="D12">
-        <v>1.03228318159278</v>
+        <v>1.02948166581871</v>
       </c>
       <c r="E12">
-        <v>1.014182665985769</v>
+        <v>0.9738503807038837</v>
       </c>
       <c r="F12">
-        <v>1.027155579638493</v>
+        <v>0.9911319296836414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047235779641589</v>
+        <v>1.05083404418571</v>
       </c>
       <c r="J12">
-        <v>1.024961598544751</v>
+        <v>0.9788459081388745</v>
       </c>
       <c r="K12">
-        <v>1.046816964398269</v>
+        <v>1.044065031423184</v>
       </c>
       <c r="L12">
-        <v>1.029043100970258</v>
+        <v>0.9894963197093355</v>
       </c>
       <c r="M12">
-        <v>1.041780380482706</v>
+        <v>1.006431023150848</v>
       </c>
       <c r="N12">
-        <v>1.01150294207027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9952417657379344</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.014498262442837</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042296965382787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9952435835666475</v>
+        <v>0.9481013216610831</v>
       </c>
       <c r="D13">
-        <v>1.032493740658598</v>
+        <v>1.029612397825207</v>
       </c>
       <c r="E13">
-        <v>1.014427940596684</v>
+        <v>0.9752341243685581</v>
       </c>
       <c r="F13">
-        <v>1.027408801622756</v>
+        <v>0.9925967371705054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047330946152127</v>
+        <v>1.051049474512679</v>
       </c>
       <c r="J13">
-        <v>1.025157253666287</v>
+        <v>0.9801756002186326</v>
       </c>
       <c r="K13">
-        <v>1.04698177467605</v>
+        <v>1.044151235803582</v>
       </c>
       <c r="L13">
-        <v>1.029240723693752</v>
+        <v>0.9908060057518834</v>
       </c>
       <c r="M13">
-        <v>1.041986743090673</v>
+        <v>1.00782264400701</v>
       </c>
       <c r="N13">
-        <v>1.011570719374103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.995885386269541</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.01588131390049</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042355445193061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.996229970803675</v>
+        <v>0.9501736726449516</v>
       </c>
       <c r="D14">
-        <v>1.033181749537492</v>
+        <v>1.030006957240859</v>
       </c>
       <c r="E14">
-        <v>1.015229385047381</v>
+        <v>0.9769834728524175</v>
       </c>
       <c r="F14">
-        <v>1.028236236360136</v>
+        <v>0.9943109865102462</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047641577800905</v>
+        <v>1.051340942060245</v>
       </c>
       <c r="J14">
-        <v>1.025796312352568</v>
+        <v>0.981815805263499</v>
       </c>
       <c r="K14">
-        <v>1.047520095370812</v>
+        <v>1.044400593760479</v>
       </c>
       <c r="L14">
-        <v>1.029886301031196</v>
+        <v>0.99237046260824</v>
       </c>
       <c r="M14">
-        <v>1.0426609031384</v>
+        <v>1.009358103607708</v>
       </c>
       <c r="N14">
-        <v>1.011792088645012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9965873659490327</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.017271499971532</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042533156938641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.996835387129119</v>
+        <v>0.951179160317193</v>
       </c>
       <c r="D15">
-        <v>1.033604208054854</v>
+        <v>1.0302476234781</v>
       </c>
       <c r="E15">
-        <v>1.015721498623404</v>
+        <v>0.9777991663902935</v>
       </c>
       <c r="F15">
-        <v>1.028744325325514</v>
+        <v>0.9950765518937614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047832064210004</v>
+        <v>1.051478522862129</v>
       </c>
       <c r="J15">
-        <v>1.026188523158224</v>
+        <v>0.9825696899344457</v>
       </c>
       <c r="K15">
-        <v>1.047850486055389</v>
+        <v>1.044551912323884</v>
       </c>
       <c r="L15">
-        <v>1.03028258263604</v>
+        <v>0.9930779306359051</v>
       </c>
       <c r="M15">
-        <v>1.043074754135463</v>
+        <v>1.010019470674138</v>
       </c>
       <c r="N15">
-        <v>1.011927943465233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9968847618604365</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.017832366473812</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042645956517688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000324392163193</v>
+        <v>0.9560553978592865</v>
       </c>
       <c r="D16">
-        <v>1.036041437285596</v>
+        <v>1.031662141127235</v>
       </c>
       <c r="E16">
-        <v>1.018560656011339</v>
+        <v>0.9816258959636126</v>
       </c>
       <c r="F16">
-        <v>1.031675888544246</v>
+        <v>0.9985403502469455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048927202910545</v>
+        <v>1.052149023631385</v>
       </c>
       <c r="J16">
-        <v>1.028448401484136</v>
+        <v>0.9860451758354789</v>
       </c>
       <c r="K16">
-        <v>1.049754219381571</v>
+        <v>1.045447256471972</v>
       </c>
       <c r="L16">
-        <v>1.032566969888643</v>
+        <v>0.9962973391479936</v>
       </c>
       <c r="M16">
-        <v>1.045460775584386</v>
+        <v>1.012899253823946</v>
       </c>
       <c r="N16">
-        <v>1.012710617740696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9981155980117723</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.020069178977037</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043282122728752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002483150455217</v>
+        <v>0.9587037873600703</v>
       </c>
       <c r="D17">
-        <v>1.037551615482485</v>
+        <v>1.032540013446559</v>
       </c>
       <c r="E17">
-        <v>1.020319995629922</v>
+        <v>0.9836411322732304</v>
       </c>
       <c r="F17">
-        <v>1.033492686993907</v>
+        <v>1.000289551672429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049602439768234</v>
+        <v>1.052505629368027</v>
       </c>
       <c r="J17">
-        <v>1.029846238162181</v>
+        <v>0.9878469379540266</v>
       </c>
       <c r="K17">
-        <v>1.050931776646854</v>
+        <v>1.046000579658486</v>
       </c>
       <c r="L17">
-        <v>1.033980881387447</v>
+        <v>0.9979422031174594</v>
       </c>
       <c r="M17">
-        <v>1.046937891697118</v>
+        <v>1.014292505903128</v>
       </c>
       <c r="N17">
-        <v>1.013194635307795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9986905511353553</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.021039364720195</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043675898622654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003731895517884</v>
+        <v>0.9596846640508526</v>
       </c>
       <c r="D18">
-        <v>1.03842593438304</v>
+        <v>1.033047968539674</v>
       </c>
       <c r="E18">
-        <v>1.021338626359333</v>
+        <v>0.9842685086935873</v>
       </c>
       <c r="F18">
-        <v>1.034544652139027</v>
+        <v>1.000698707548973</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049992164749586</v>
+        <v>1.052636500561366</v>
       </c>
       <c r="J18">
-        <v>1.030654653935967</v>
+        <v>0.9883622862091184</v>
       </c>
       <c r="K18">
-        <v>1.051612787640695</v>
+        <v>1.046319633160333</v>
       </c>
       <c r="L18">
-        <v>1.034798919543936</v>
+        <v>0.9983644280950649</v>
       </c>
       <c r="M18">
-        <v>1.047792600441053</v>
+        <v>1.014505391279898</v>
       </c>
       <c r="N18">
-        <v>1.013474519251238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9987458900317778</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.020965756863818</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043889953940977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004155946743747</v>
+        <v>0.9591465384345117</v>
       </c>
       <c r="D19">
-        <v>1.03872296062629</v>
+        <v>1.033199469040953</v>
       </c>
       <c r="E19">
-        <v>1.021684690447032</v>
+        <v>0.9836195653796316</v>
       </c>
       <c r="F19">
-        <v>1.034902051964653</v>
+        <v>0.9998576555793776</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05012435900718</v>
+        <v>1.052550711118548</v>
       </c>
       <c r="J19">
-        <v>1.03092914673871</v>
+        <v>0.9877027636099563</v>
       </c>
       <c r="K19">
-        <v>1.051844017918643</v>
+        <v>1.046407121841381</v>
       </c>
       <c r="L19">
-        <v>1.035076734507453</v>
+        <v>0.9976610682416795</v>
       </c>
       <c r="M19">
-        <v>1.048082886124855</v>
+        <v>1.013614289900863</v>
       </c>
       <c r="N19">
-        <v>1.01356954518977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9983445840062843</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.019928925664354</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043958139701652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002252621131584</v>
+        <v>0.9544027343293722</v>
       </c>
       <c r="D20">
-        <v>1.037390268164333</v>
+        <v>1.032367263716982</v>
       </c>
       <c r="E20">
-        <v>1.020132022144761</v>
+        <v>0.9794647415522237</v>
       </c>
       <c r="F20">
-        <v>1.033298567410812</v>
+        <v>0.9956435397568482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049530422390288</v>
+        <v>1.051892528475398</v>
       </c>
       <c r="J20">
-        <v>1.029696983333133</v>
+        <v>0.9838120136497904</v>
       </c>
       <c r="K20">
-        <v>1.050806042983137</v>
+        <v>1.045863888260577</v>
       </c>
       <c r="L20">
-        <v>1.033829876274954</v>
+        <v>0.9938785523787564</v>
       </c>
       <c r="M20">
-        <v>1.046780125600395</v>
+        <v>1.009763427266217</v>
       </c>
       <c r="N20">
-        <v>1.013142958094353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9966801342029331</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.016341086548696</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043577933417244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.995939991540137</v>
+        <v>0.944815685588718</v>
       </c>
       <c r="D21">
-        <v>1.032979450435842</v>
+        <v>1.029793533708732</v>
       </c>
       <c r="E21">
-        <v>1.014993731511599</v>
+        <v>0.9718188835915857</v>
       </c>
       <c r="F21">
-        <v>1.027992937275234</v>
+        <v>0.9886293271341494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04755029340501</v>
+        <v>1.050572884955856</v>
       </c>
       <c r="J21">
-        <v>1.025608446282887</v>
+        <v>0.9768166272099311</v>
       </c>
       <c r="K21">
-        <v>1.047361842220701</v>
+        <v>1.044231619513088</v>
       </c>
       <c r="L21">
-        <v>1.0296965039998</v>
+        <v>0.9873545749097211</v>
       </c>
       <c r="M21">
-        <v>1.042462697837429</v>
+        <v>1.003829370704979</v>
       </c>
       <c r="N21">
-        <v>1.01172701339182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9940898341841136</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.011602479149938</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042427069766948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9918700954791323</v>
+        <v>0.9386583913024449</v>
       </c>
       <c r="D22">
-        <v>1.0301434768557</v>
+        <v>1.02814083768072</v>
       </c>
       <c r="E22">
-        <v>1.011690165159957</v>
+        <v>0.9669452734965426</v>
       </c>
       <c r="F22">
-        <v>1.024582499141008</v>
+        <v>0.9841934029233276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04626607295844</v>
+        <v>1.049723259227405</v>
       </c>
       <c r="J22">
-        <v>1.022971312457372</v>
+        <v>0.9723487076784498</v>
       </c>
       <c r="K22">
-        <v>1.045140538172759</v>
+        <v>1.043174699086028</v>
       </c>
       <c r="L22">
-        <v>1.027033541147673</v>
+        <v>0.9832012763948553</v>
       </c>
       <c r="M22">
-        <v>1.039682210787966</v>
+        <v>1.000084632379408</v>
       </c>
       <c r="N22">
-        <v>1.010813419948949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9924421150353044</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.008638637649816</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041666423962077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9940375437305575</v>
+        <v>0.9419543755646946</v>
       </c>
       <c r="D23">
-        <v>1.031653016115501</v>
+        <v>1.029027789644555</v>
       </c>
       <c r="E23">
-        <v>1.013448602826136</v>
+        <v>0.969556302929827</v>
       </c>
       <c r="F23">
-        <v>1.026397750403532</v>
+        <v>0.9865811853133334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046950684632228</v>
+        <v>1.050188623042146</v>
       </c>
       <c r="J23">
-        <v>1.024375823120228</v>
+        <v>0.9747421754936343</v>
       </c>
       <c r="K23">
-        <v>1.046323544689273</v>
+        <v>1.043745307562694</v>
       </c>
       <c r="L23">
-        <v>1.028451513166843</v>
+        <v>0.9854285355452991</v>
       </c>
       <c r="M23">
-        <v>1.041162657216804</v>
+        <v>1.002104144004624</v>
       </c>
       <c r="N23">
-        <v>1.011300015460325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9933219042592222</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.010237018682087</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042060323433954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002356819543873</v>
+        <v>0.9544130094777253</v>
       </c>
       <c r="D24">
-        <v>1.037463194251291</v>
+        <v>1.032411498950509</v>
       </c>
       <c r="E24">
-        <v>1.020216982591292</v>
+        <v>0.9794474406701414</v>
       </c>
       <c r="F24">
-        <v>1.033386305571466</v>
+        <v>0.9956117549053635</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049562976682715</v>
+        <v>1.051906740314116</v>
       </c>
       <c r="J24">
-        <v>1.029764446502908</v>
+        <v>0.9837863099593827</v>
       </c>
       <c r="K24">
-        <v>1.050862874622102</v>
+        <v>1.045892375277054</v>
       </c>
       <c r="L24">
-        <v>1.033898129563182</v>
+        <v>0.9938453585650082</v>
       </c>
       <c r="M24">
-        <v>1.046851434490465</v>
+        <v>1.009716373799744</v>
       </c>
       <c r="N24">
-        <v>1.01316631631397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9966482549518776</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.016261827834607</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043570949995926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011604976556027</v>
+        <v>0.9679569465852923</v>
       </c>
       <c r="D25">
-        <v>1.043950544601459</v>
+        <v>1.036150792506921</v>
       </c>
       <c r="E25">
-        <v>1.027776688643809</v>
+        <v>0.9902464241247355</v>
       </c>
       <c r="F25">
-        <v>1.041194457242249</v>
+        <v>1.005474204858154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052433275249327</v>
+        <v>1.053713566511004</v>
       </c>
       <c r="J25">
-        <v>1.035748000726219</v>
+        <v>0.9936129925562177</v>
       </c>
       <c r="K25">
-        <v>1.0559028524706</v>
+        <v>1.048212686087368</v>
       </c>
       <c r="L25">
-        <v>1.039958583896659</v>
+        <v>1.002998062631755</v>
       </c>
       <c r="M25">
-        <v>1.053185250983505</v>
+        <v>1.017988131088702</v>
       </c>
       <c r="N25">
-        <v>1.015237110149295</v>
+        <v>1.000254807514774</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.022808567131585</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045208665512924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.978146894180881</v>
+        <v>0.9808468103609119</v>
       </c>
       <c r="D2">
-        <v>1.038995333256226</v>
+        <v>1.036095177507989</v>
       </c>
       <c r="E2">
-        <v>0.9984080587471578</v>
+        <v>1.000646512235329</v>
       </c>
       <c r="F2">
-        <v>1.012952005873071</v>
+        <v>1.015152086256429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055031926986014</v>
+        <v>1.054075179558695</v>
       </c>
       <c r="J2">
-        <v>1.001001469865023</v>
+        <v>1.003615881276684</v>
       </c>
       <c r="K2">
-        <v>1.049936872476254</v>
+        <v>1.047073549658827</v>
       </c>
       <c r="L2">
-        <v>1.009889616484636</v>
+        <v>1.012096847458062</v>
       </c>
       <c r="M2">
-        <v>1.024233800195846</v>
+        <v>1.026404288513221</v>
       </c>
       <c r="N2">
-        <v>1.002951840132671</v>
+        <v>1.006973936998558</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.027751702839871</v>
+        <v>1.029469527777964</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046379939488045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04436404963488</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024193931611006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9852147656612718</v>
+        <v>0.987556113456729</v>
       </c>
       <c r="D3">
-        <v>1.04097907190624</v>
+        <v>1.037810896735923</v>
       </c>
       <c r="E3">
-        <v>1.004077744615188</v>
+        <v>1.00601305903701</v>
       </c>
       <c r="F3">
-        <v>1.018127609240778</v>
+        <v>1.020013692804195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055897392575198</v>
+        <v>1.054756833834159</v>
       </c>
       <c r="J3">
-        <v>1.006116770043602</v>
+        <v>1.008391857188312</v>
       </c>
       <c r="K3">
-        <v>1.051113150911087</v>
+        <v>1.047981800679584</v>
       </c>
       <c r="L3">
-        <v>1.014658714473024</v>
+        <v>1.016569575477151</v>
       </c>
       <c r="M3">
-        <v>1.028533681200923</v>
+        <v>1.030396742066106</v>
       </c>
       <c r="N3">
-        <v>1.004818607259298</v>
+        <v>1.008384885568909</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031154823589262</v>
+        <v>1.032629329238997</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047209013941832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045003335449484</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024398903006691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9896526135825733</v>
+        <v>0.9917753833919278</v>
       </c>
       <c r="D4">
-        <v>1.042228413703585</v>
+        <v>1.038895026225834</v>
       </c>
       <c r="E4">
-        <v>1.007642804125656</v>
+        <v>1.009393103013248</v>
       </c>
       <c r="F4">
-        <v>1.021379438944885</v>
+        <v>1.023074216707136</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05642189757228</v>
+        <v>1.055168167237576</v>
       </c>
       <c r="J4">
-        <v>1.009324761978927</v>
+        <v>1.011391841531941</v>
       </c>
       <c r="K4">
-        <v>1.051842554057238</v>
+        <v>1.048545635551025</v>
       </c>
       <c r="L4">
-        <v>1.01764985416626</v>
+        <v>1.019379468189791</v>
       </c>
       <c r="M4">
-        <v>1.031226502870477</v>
+        <v>1.032901909476182</v>
       </c>
       <c r="N4">
-        <v>1.005987076974194</v>
+        <v>1.009269212397093</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033286036249115</v>
+        <v>1.034612020441816</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04772563895668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045402978643865</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024520856436227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9914860364589131</v>
+        <v>0.9935208385750396</v>
       </c>
       <c r="D5">
-        <v>1.04274630489694</v>
+        <v>1.039347054327529</v>
       </c>
       <c r="E5">
-        <v>1.009115975272749</v>
+        <v>1.010792096479677</v>
       </c>
       <c r="F5">
-        <v>1.022719861469768</v>
+        <v>1.024338851218537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056632575603101</v>
+        <v>1.05533410479192</v>
       </c>
       <c r="J5">
-        <v>1.010648699901307</v>
+        <v>1.012631834167235</v>
       </c>
       <c r="K5">
-        <v>1.052142434697517</v>
+        <v>1.048779408768022</v>
       </c>
       <c r="L5">
-        <v>1.018883737172191</v>
+        <v>1.020540614009294</v>
       </c>
       <c r="M5">
-        <v>1.032333672398563</v>
+        <v>1.033934675453348</v>
       </c>
       <c r="N5">
-        <v>1.006469500274038</v>
+        <v>1.00963470023985</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034162295037198</v>
+        <v>1.035429391743885</v>
       </c>
       <c r="Q5">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R5">
-        <v>1.047944769349313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045576088264108</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024568840345649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917902310476511</v>
+        <v>0.9938115986253736</v>
       </c>
       <c r="D6">
-        <v>1.04283357928719</v>
+        <v>1.039425455933491</v>
       </c>
       <c r="E6">
-        <v>1.009359511490456</v>
+        <v>1.011024699008231</v>
       </c>
       <c r="F6">
-        <v>1.022938190988887</v>
+        <v>1.024547023069374</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056665627167888</v>
+        <v>1.055361565635464</v>
       </c>
       <c r="J6">
-        <v>1.010867822932721</v>
+        <v>1.012838146660728</v>
       </c>
       <c r="K6">
-        <v>1.052193129028449</v>
+        <v>1.048821162923147</v>
       </c>
       <c r="L6">
-        <v>1.019087235107189</v>
+        <v>1.020733397083941</v>
       </c>
       <c r="M6">
-        <v>1.032512994397262</v>
+        <v>1.034104038335115</v>
       </c>
       <c r="N6">
-        <v>1.006550241390466</v>
+        <v>1.009696038727904</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034304217624105</v>
+        <v>1.035563432048373</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047989265730498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045615143808876</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024575794805188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9896719695036066</v>
+        <v>0.9918197017406729</v>
       </c>
       <c r="D7">
-        <v>1.042236975821958</v>
+        <v>1.038909098769499</v>
       </c>
       <c r="E7">
-        <v>1.007655743356715</v>
+        <v>1.009429267284735</v>
       </c>
       <c r="F7">
-        <v>1.021382366425935</v>
+        <v>1.023099371459889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I7">
-        <v>1.056419450247467</v>
+        <v>1.055172258137841</v>
       </c>
       <c r="J7">
-        <v>1.009337419686761</v>
+        <v>1.01142883238046</v>
       </c>
       <c r="K7">
-        <v>1.051848183321863</v>
+        <v>1.048556701875641</v>
       </c>
       <c r="L7">
-        <v>1.017659669428697</v>
+        <v>1.019412242313652</v>
       </c>
       <c r="M7">
-        <v>1.031226479624549</v>
+        <v>1.032923866668102</v>
       </c>
       <c r="N7">
-        <v>1.005994231162711</v>
+        <v>1.009310033638662</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033286017851335</v>
+        <v>1.034629398230311</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047749517484218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045432725902015</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024518539251209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9805572803871249</v>
+        <v>0.9832096667730652</v>
       </c>
       <c r="D8">
-        <v>1.039672722910322</v>
+        <v>1.036690179628381</v>
       </c>
       <c r="E8">
-        <v>1.000336899262934</v>
+        <v>1.002540418151551</v>
       </c>
       <c r="F8">
-        <v>1.014701321478433</v>
+        <v>1.016854706767407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055323642878905</v>
+        <v>1.054317137379707</v>
       </c>
       <c r="J8">
-        <v>1.002744910986608</v>
+        <v>1.005316390911681</v>
       </c>
       <c r="K8">
-        <v>1.050340835466582</v>
+        <v>1.047395076747626</v>
       </c>
       <c r="L8">
-        <v>1.011512308966937</v>
+        <v>1.013686087471982</v>
       </c>
       <c r="M8">
-        <v>1.025685769269818</v>
+        <v>1.027811109537657</v>
       </c>
       <c r="N8">
-        <v>1.00359190528867</v>
+        <v>1.0075659585851</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028900858857932</v>
+        <v>1.030582948787359</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046688232889063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044616348943272</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024260310369753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633813411621557</v>
+        <v>0.9669603023308961</v>
       </c>
       <c r="D9">
-        <v>1.03488350108026</v>
+        <v>1.032563438023051</v>
       </c>
       <c r="E9">
-        <v>0.9865981240443542</v>
+        <v>0.9895829281514104</v>
       </c>
       <c r="F9">
-        <v>1.002159103024333</v>
+        <v>1.005117180748625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053124064150831</v>
+        <v>1.052572844638462</v>
       </c>
       <c r="J9">
-        <v>0.9902969362193608</v>
+        <v>0.9937362609650207</v>
       </c>
       <c r="K9">
-        <v>1.047434880863634</v>
+        <v>1.045149399814469</v>
       </c>
       <c r="L9">
-        <v>0.9999124452912423</v>
+        <v>1.002847306776028</v>
       </c>
       <c r="M9">
-        <v>1.015217247147448</v>
+        <v>1.01812777727792</v>
       </c>
       <c r="N9">
-        <v>0.9990342847079111</v>
+        <v>1.004145279209417</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.020615539092073</v>
+        <v>1.022919090521011</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044630436389459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043025108258554</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023728341175183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9512375386249962</v>
+        <v>0.9556414834534532</v>
       </c>
       <c r="D10">
-        <v>1.031499220981669</v>
+        <v>1.029678308090062</v>
       </c>
       <c r="E10">
-        <v>0.9769649635035659</v>
+        <v>0.9806525918184485</v>
       </c>
       <c r="F10">
-        <v>0.9933971321247638</v>
+        <v>0.9970622706236262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051482157007227</v>
+        <v>1.051284247215114</v>
       </c>
       <c r="J10">
-        <v>0.9815289341839767</v>
+        <v>0.985732713374264</v>
       </c>
       <c r="K10">
-        <v>1.04532212107807</v>
+        <v>1.043531618625976</v>
       </c>
       <c r="L10">
-        <v>0.9917629619812265</v>
+        <v>0.9953801827561467</v>
       </c>
       <c r="M10">
-        <v>1.007886635629553</v>
+        <v>1.011484770037991</v>
       </c>
       <c r="N10">
-        <v>0.9958386752729488</v>
+        <v>1.001918228509125</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.014866615862735</v>
+        <v>1.017714210554964</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043153252890987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041899580757405</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023308023074699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9473898035867034</v>
+        <v>0.9523123739154838</v>
       </c>
       <c r="D11">
-        <v>1.030026403052715</v>
+        <v>1.028466306949537</v>
       </c>
       <c r="E11">
-        <v>0.9742374705832422</v>
+        <v>0.978399911233406</v>
       </c>
       <c r="F11">
-        <v>0.9912353904007115</v>
+        <v>0.9953765487176528</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05094056772248</v>
+        <v>1.050938995874268</v>
       </c>
       <c r="J11">
-        <v>0.97912771194776</v>
+        <v>0.9838129753648983</v>
       </c>
       <c r="K11">
-        <v>1.044403442898997</v>
+        <v>1.042870641928541</v>
       </c>
       <c r="L11">
-        <v>0.9896621524295151</v>
+        <v>0.9937410027797849</v>
       </c>
       <c r="M11">
-        <v>1.006324509109175</v>
+        <v>1.010386186465029</v>
       </c>
       <c r="N11">
-        <v>0.9951712770615981</v>
+        <v>1.001774053801989</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.014079184636633</v>
+        <v>1.017291928626754</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042536228798445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041467989312255</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023066038183007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9465958570068258</v>
+        <v>0.9517142528137525</v>
       </c>
       <c r="D12">
-        <v>1.02948166581871</v>
+        <v>1.028026020953873</v>
       </c>
       <c r="E12">
-        <v>0.9738503807038837</v>
+        <v>0.9782015431214789</v>
       </c>
       <c r="F12">
-        <v>0.9911319296836414</v>
+        <v>0.9954654688698547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05083404418571</v>
+        <v>1.050907552583991</v>
       </c>
       <c r="J12">
-        <v>0.9788459081388745</v>
+        <v>0.9837126905374234</v>
       </c>
       <c r="K12">
-        <v>1.044065031423184</v>
+        <v>1.042635287875976</v>
       </c>
       <c r="L12">
-        <v>0.9894963197093355</v>
+        <v>0.9937586320110965</v>
       </c>
       <c r="M12">
-        <v>1.006431023150848</v>
+        <v>1.010680062043842</v>
       </c>
       <c r="N12">
-        <v>0.9952417657379344</v>
+        <v>1.001994044294401</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.014498262442837</v>
+        <v>1.017858013675675</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042296965382787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041301592473532</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022954210238057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9481013216610831</v>
+        <v>0.9531418161917047</v>
       </c>
       <c r="D13">
-        <v>1.029612397825207</v>
+        <v>1.028155203870626</v>
       </c>
       <c r="E13">
-        <v>0.9752341243685581</v>
+        <v>0.9795334443207374</v>
       </c>
       <c r="F13">
-        <v>0.9925967371705054</v>
+        <v>0.9968936030059062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051049474512679</v>
+        <v>1.051113069452379</v>
       </c>
       <c r="J13">
-        <v>0.9801756002186326</v>
+        <v>0.9849703281062943</v>
       </c>
       <c r="K13">
-        <v>1.044151235803582</v>
+        <v>1.042719875842719</v>
       </c>
       <c r="L13">
-        <v>0.9908060057518834</v>
+        <v>0.9950181514320753</v>
       </c>
       <c r="M13">
-        <v>1.00782264400701</v>
+        <v>1.012036324790667</v>
       </c>
       <c r="N13">
-        <v>0.995885386269541</v>
+        <v>1.002459815015088</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.01588131390049</v>
+        <v>1.019212237619571</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042355445193061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041358685167584</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022933415168791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501736726449516</v>
+        <v>0.9550419421611415</v>
       </c>
       <c r="D14">
-        <v>1.030006957240859</v>
+        <v>1.02850351217685</v>
       </c>
       <c r="E14">
-        <v>0.9769834728524175</v>
+        <v>0.9811440656614061</v>
       </c>
       <c r="F14">
-        <v>0.9943109865102462</v>
+        <v>0.9984849511884184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051340942060245</v>
+        <v>1.051361694924907</v>
       </c>
       <c r="J14">
-        <v>0.981815805263499</v>
+        <v>0.9864510013890523</v>
       </c>
       <c r="K14">
-        <v>1.044400593760479</v>
+        <v>1.042923486319413</v>
       </c>
       <c r="L14">
-        <v>0.99237046260824</v>
+        <v>0.9964480075662531</v>
       </c>
       <c r="M14">
-        <v>1.009358103607708</v>
+        <v>1.013452502233562</v>
       </c>
       <c r="N14">
-        <v>0.9965873659490327</v>
+        <v>1.002894821900253</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.017271499971532</v>
+        <v>1.020507683833962</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042533156938641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041504188943299</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02295826074863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.951179160317193</v>
+        <v>0.9559511223870002</v>
       </c>
       <c r="D15">
-        <v>1.0302476234781</v>
+        <v>1.028712938106807</v>
       </c>
       <c r="E15">
-        <v>0.9777991663902935</v>
+        <v>0.9818790584007236</v>
       </c>
       <c r="F15">
-        <v>0.9950765518937614</v>
+        <v>0.9991771020221358</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051478522862129</v>
+        <v>1.051473529086878</v>
       </c>
       <c r="J15">
-        <v>0.9825696899344457</v>
+        <v>0.9871155736935983</v>
       </c>
       <c r="K15">
-        <v>1.044551912323884</v>
+        <v>1.043043913745007</v>
       </c>
       <c r="L15">
-        <v>0.9930779306359051</v>
+        <v>0.9970771163347691</v>
       </c>
       <c r="M15">
-        <v>1.010019470674138</v>
+        <v>1.014042539682497</v>
       </c>
       <c r="N15">
-        <v>0.9968847618604365</v>
+        <v>1.003060675781562</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.017832366473812</v>
+        <v>1.021012087673203</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042645956517688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041595719283904</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022982301695173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9560553978592865</v>
+        <v>0.9603150887125737</v>
       </c>
       <c r="D16">
-        <v>1.031662141127235</v>
+        <v>1.029910868706744</v>
       </c>
       <c r="E16">
-        <v>0.9816258959636126</v>
+        <v>0.9852599244826753</v>
       </c>
       <c r="F16">
-        <v>0.9985403502469455</v>
+        <v>1.002215816144842</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052149023631385</v>
+        <v>1.051980179479406</v>
       </c>
       <c r="J16">
-        <v>0.9860451758354789</v>
+        <v>0.990114612328982</v>
       </c>
       <c r="K16">
-        <v>1.045447256471972</v>
+        <v>1.043725131802117</v>
       </c>
       <c r="L16">
-        <v>0.9962973391479936</v>
+        <v>0.9998630377613691</v>
       </c>
       <c r="M16">
-        <v>1.012899253823946</v>
+        <v>1.016508617784499</v>
       </c>
       <c r="N16">
-        <v>0.9981155980117723</v>
+        <v>1.003684190696579</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.020069178977037</v>
+        <v>1.022922007308071</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043282122728752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042080796871342</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023176438736024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9587037873600703</v>
+        <v>0.9626917371055084</v>
       </c>
       <c r="D17">
-        <v>1.032540013446559</v>
+        <v>1.030648072772155</v>
       </c>
       <c r="E17">
-        <v>0.9836411322732304</v>
+        <v>0.9870328033255423</v>
       </c>
       <c r="F17">
-        <v>1.000289551672429</v>
+        <v>1.003726751315784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052505629368027</v>
+        <v>1.05223674169299</v>
       </c>
       <c r="J17">
-        <v>0.9878469379540266</v>
+        <v>0.9916631618504146</v>
       </c>
       <c r="K17">
-        <v>1.046000579658486</v>
+        <v>1.044139253952511</v>
       </c>
       <c r="L17">
-        <v>0.9979422031174594</v>
+        <v>1.001272079831189</v>
       </c>
       <c r="M17">
-        <v>1.014292505903128</v>
+        <v>1.017669751095269</v>
       </c>
       <c r="N17">
-        <v>0.9986905511353553</v>
+        <v>1.003971490117789</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.021039364720195</v>
+        <v>1.023709001911582</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043675898622654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042376404679772</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023309671673473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596846640508526</v>
+        <v>0.9635369789030902</v>
       </c>
       <c r="D18">
-        <v>1.033047968539674</v>
+        <v>1.031058972474369</v>
       </c>
       <c r="E18">
-        <v>0.9842685086935873</v>
+        <v>0.9875283149293496</v>
       </c>
       <c r="F18">
-        <v>1.000698707548973</v>
+        <v>1.003995872120624</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052636500561366</v>
+        <v>1.052302297548066</v>
       </c>
       <c r="J18">
-        <v>0.9883622862091184</v>
+        <v>0.9920519922294924</v>
       </c>
       <c r="K18">
-        <v>1.046319633160333</v>
+        <v>1.04436229111993</v>
       </c>
       <c r="L18">
-        <v>0.9983644280950649</v>
+        <v>1.001565855442275</v>
       </c>
       <c r="M18">
-        <v>1.014505391279898</v>
+        <v>1.017745986243451</v>
       </c>
       <c r="N18">
-        <v>0.9987458900317778</v>
+        <v>1.003936623275696</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.020965756863818</v>
+        <v>1.023527926567442</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043889953940977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042521433288033</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023409841560592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9591465384345117</v>
+        <v>0.9629812928485357</v>
       </c>
       <c r="D19">
-        <v>1.033199469040953</v>
+        <v>1.031169800790466</v>
       </c>
       <c r="E19">
-        <v>0.9836195653796316</v>
+        <v>0.9868466449890934</v>
       </c>
       <c r="F19">
-        <v>0.9998576555793776</v>
+        <v>1.00311056343837</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052550711118548</v>
+        <v>1.052193356070166</v>
       </c>
       <c r="J19">
-        <v>0.9877027636099563</v>
+        <v>0.9913763464970783</v>
       </c>
       <c r="K19">
-        <v>1.046407121841381</v>
+        <v>1.044409572610864</v>
       </c>
       <c r="L19">
-        <v>0.9976610682416795</v>
+        <v>1.000830565847289</v>
       </c>
       <c r="M19">
-        <v>1.013614289900863</v>
+        <v>1.016811563231353</v>
       </c>
       <c r="N19">
-        <v>0.9983445840062843</v>
+        <v>1.003598090644606</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.019928925664354</v>
+        <v>1.022457701433761</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043958139701652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042561818167879</v>
+      </c>
+      <c r="S19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T19">
+        <v>1.023463402841107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9544027343293722</v>
+        <v>0.9585279459973101</v>
       </c>
       <c r="D20">
-        <v>1.032367263716982</v>
+        <v>1.030432514675299</v>
       </c>
       <c r="E20">
-        <v>0.9794647415522237</v>
+        <v>0.9829145376095274</v>
       </c>
       <c r="F20">
-        <v>0.9956435397568482</v>
+        <v>0.999089841841475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051892528475398</v>
+        <v>1.051611276830808</v>
       </c>
       <c r="J20">
-        <v>0.9838120136497904</v>
+        <v>0.9877567668973016</v>
       </c>
       <c r="K20">
-        <v>1.045863888260577</v>
+        <v>1.043960550850919</v>
       </c>
       <c r="L20">
-        <v>0.9938785523787564</v>
+        <v>0.9972646179188799</v>
       </c>
       <c r="M20">
-        <v>1.009763427266217</v>
+        <v>1.013148714185208</v>
       </c>
       <c r="N20">
-        <v>0.9966801342029331</v>
+        <v>1.0024083302379</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.016341086548696</v>
+        <v>1.019020262785733</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043577933417244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042248608538055</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02340624049665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.944815685588718</v>
+        <v>0.9499542984392261</v>
       </c>
       <c r="D21">
-        <v>1.029793533708732</v>
+        <v>1.028249578244836</v>
       </c>
       <c r="E21">
-        <v>0.9718188835915857</v>
+        <v>0.9761496262548487</v>
       </c>
       <c r="F21">
-        <v>0.9886293271341494</v>
+        <v>0.9929015435078173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050572884955856</v>
+        <v>1.05059821104951</v>
       </c>
       <c r="J21">
-        <v>0.9768166272099311</v>
+        <v>0.9817043843378175</v>
       </c>
       <c r="K21">
-        <v>1.044231619513088</v>
+        <v>1.042714815380897</v>
       </c>
       <c r="L21">
-        <v>0.9873545749097211</v>
+        <v>0.991597391566191</v>
       </c>
       <c r="M21">
-        <v>1.003829370704979</v>
+        <v>1.008018657917989</v>
       </c>
       <c r="N21">
-        <v>0.9940898341841136</v>
+        <v>1.001076184545002</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.011602479149938</v>
+        <v>1.01491815091064</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042427069766948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041371355582929</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023077783114555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9386583913024449</v>
+        <v>0.9444701796240651</v>
       </c>
       <c r="D22">
-        <v>1.02814083768072</v>
+        <v>1.026847550428223</v>
       </c>
       <c r="E22">
-        <v>0.9669452734965426</v>
+        <v>0.9718634111069873</v>
       </c>
       <c r="F22">
-        <v>0.9841934029233276</v>
+        <v>0.9890154802222743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049723259227405</v>
+        <v>1.049946691796316</v>
       </c>
       <c r="J22">
-        <v>0.9723487076784498</v>
+        <v>0.9778570650022477</v>
       </c>
       <c r="K22">
-        <v>1.043174699086028</v>
+        <v>1.041905276453146</v>
       </c>
       <c r="L22">
-        <v>0.9832012763948553</v>
+        <v>0.9880136535002098</v>
       </c>
       <c r="M22">
-        <v>1.000084632379408</v>
+        <v>1.004807729113022</v>
       </c>
       <c r="N22">
-        <v>0.9924421150353044</v>
+        <v>1.000234580335742</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.008638637649816</v>
+        <v>1.012376816528499</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041666423962077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040784306452224</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022862391297716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9419543755646946</v>
+        <v>0.9473567198204118</v>
       </c>
       <c r="D23">
-        <v>1.029027789644555</v>
+        <v>1.027591391612077</v>
       </c>
       <c r="E23">
-        <v>0.969556302929827</v>
+        <v>0.9741133193560182</v>
       </c>
       <c r="F23">
-        <v>0.9865811853133334</v>
+        <v>0.9910647097924042</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050188623042146</v>
+        <v>1.050294499722003</v>
       </c>
       <c r="J23">
-        <v>0.9747421754936343</v>
+        <v>0.9798722841359254</v>
       </c>
       <c r="K23">
-        <v>1.043745307562694</v>
+        <v>1.042334751935891</v>
       </c>
       <c r="L23">
-        <v>0.9854285355452991</v>
+        <v>0.9898904820094754</v>
       </c>
       <c r="M23">
-        <v>1.002104144004624</v>
+        <v>1.006498309317388</v>
       </c>
       <c r="N23">
-        <v>0.9933219042592222</v>
+        <v>1.000624567891123</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.010237018682087</v>
+        <v>1.013714851041597</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042060323433954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041077476422944</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022984594284342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9544130094777253</v>
+        <v>0.9585245846050215</v>
       </c>
       <c r="D24">
-        <v>1.032411498950509</v>
+        <v>1.030457670303364</v>
       </c>
       <c r="E24">
-        <v>0.9794474406701414</v>
+        <v>0.9828816595700947</v>
       </c>
       <c r="F24">
-        <v>0.9956117549053635</v>
+        <v>0.9990353456763094</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051906740314116</v>
+        <v>1.051610458652684</v>
       </c>
       <c r="J24">
-        <v>0.9837863099593827</v>
+        <v>0.9877182807893428</v>
       </c>
       <c r="K24">
-        <v>1.045892375277054</v>
+        <v>1.043970224762202</v>
       </c>
       <c r="L24">
-        <v>0.9938453585650082</v>
+        <v>0.9972162127669907</v>
       </c>
       <c r="M24">
-        <v>1.009716373799744</v>
+        <v>1.013079422929837</v>
       </c>
       <c r="N24">
-        <v>0.9966482549518776</v>
+        <v>1.002375871227758</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.016261827834607</v>
+        <v>1.018923543995806</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043570949995926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04222563589411</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023422579578988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9679569465852923</v>
+        <v>0.9712575141902557</v>
       </c>
       <c r="D25">
-        <v>1.036150792506921</v>
+        <v>1.033661379956093</v>
       </c>
       <c r="E25">
-        <v>0.9902464241247355</v>
+        <v>0.9929971461494944</v>
       </c>
       <c r="F25">
-        <v>1.005474204858154</v>
+        <v>1.008201680253311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053713566511004</v>
+        <v>1.053045517640785</v>
       </c>
       <c r="J25">
-        <v>0.9936129925562177</v>
+        <v>0.9967924651904624</v>
       </c>
       <c r="K25">
-        <v>1.048212686087368</v>
+        <v>1.045758690042456</v>
       </c>
       <c r="L25">
-        <v>1.002998062631755</v>
+        <v>1.005705153918875</v>
       </c>
       <c r="M25">
-        <v>1.017988131088702</v>
+        <v>1.020673996042105</v>
       </c>
       <c r="N25">
-        <v>1.000254807514774</v>
+        <v>1.005018098704649</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.022808567131585</v>
+        <v>1.024934299728796</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045208665512924</v>
+        <v>1.04348701914247</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023868899763251</v>
       </c>
     </row>
   </sheetData>
